--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1890128.565524062</v>
+        <v>1887199.102922542</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767339</v>
+        <v>603248.4937673467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9989074.407276154</v>
+        <v>9989074.407276152</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>13.26885062472838</v>
       </c>
       <c r="G2" t="n">
         <v>15.06454430600407</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.392804883016947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.26885062472838</v>
+      </c>
+      <c r="G3" t="n">
         <v>15.06454430600407</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>15.06454430600407</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.06454430600407</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.26885062472838</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>15.06454430600407</v>
       </c>
-      <c r="E4" t="n">
-        <v>13.40114428502045</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>13.40114428502044</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>13.26885062472838</v>
       </c>
       <c r="G5" t="n">
         <v>15.06454430600407</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.392804883016946</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>15.06454430600407</v>
       </c>
       <c r="S5" t="n">
-        <v>15.06454430600407</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13.26885062472838</v>
+      </c>
+      <c r="U6" t="n">
         <v>15.06454430600407</v>
       </c>
-      <c r="C6" t="n">
+      <c r="V6" t="n">
         <v>15.06454430600407</v>
       </c>
-      <c r="D6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.06454430600407</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>13.26885062472839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3.412836940773774</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="F7" t="n">
         <v>15.06454430600407</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.856013683954917</v>
+        <v>9.856013683954611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>3.412836940773465</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.06454430600407</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.06454430600407</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>153.8072380324134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>21.45987517072696</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>13.45644170423155</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>32.54455978945996</v>
       </c>
       <c r="X9" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="10">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>49.53073735516431</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="X10" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>284.8095808844441</v>
       </c>
       <c r="I11" t="n">
-        <v>4.692323939200236</v>
+        <v>4.69232393920052</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.38611583950778</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>199.7298536222183</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>253.4650347774603</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.5857569155465</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.4875697049483</v>
       </c>
       <c r="H12" t="n">
-        <v>84.65300431064705</v>
+        <v>84.65300431064708</v>
       </c>
       <c r="I12" t="n">
-        <v>1.192610055441449</v>
+        <v>1.192610055441577</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>118.6351996751493</v>
+        <v>118.6351996751494</v>
       </c>
       <c r="T12" t="n">
         <v>188.6532562643695</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5966489469446</v>
       </c>
       <c r="H13" t="n">
         <v>140.9393984850683</v>
       </c>
       <c r="I13" t="n">
-        <v>83.44642946099626</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.63558941945129</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>182.289948956312</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.7152685790847</v>
       </c>
       <c r="U13" t="n">
         <v>286.1884295158628</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>108.7160414277587</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.0316012166536</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>378.0080419539714</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>409.9649885849436</v>
       </c>
       <c r="H14" t="n">
-        <v>284.8095808844441</v>
+        <v>81.15739914392704</v>
       </c>
       <c r="I14" t="n">
-        <v>4.692323939200264</v>
+        <v>4.69232393920052</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.38611583950781</v>
+        <v>87.38611583950795</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.7298536222183</v>
       </c>
       <c r="U14" t="n">
         <v>250.9186329934212</v>
@@ -1701,10 +1701,10 @@
         <v>134.4875697049483</v>
       </c>
       <c r="H15" t="n">
-        <v>84.65300431064705</v>
+        <v>84.65300431064708</v>
       </c>
       <c r="I15" t="n">
-        <v>1.192610055441463</v>
+        <v>1.192610055441577</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>118.6351996751493</v>
+        <v>118.6351996751494</v>
       </c>
       <c r="T15" t="n">
         <v>188.6532562643695</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>90.04040286330721</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>77.33698243544534</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5966489469446</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.9393984850683</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>69.63558941945145</v>
       </c>
       <c r="S16" t="n">
-        <v>182.289948956312</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.7152685790847</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>215.1873397024261</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1859,10 @@
         <v>409.9224761670418</v>
       </c>
       <c r="H17" t="n">
-        <v>284.3742005846068</v>
+        <v>134.2886485160169</v>
       </c>
       <c r="I17" t="n">
-        <v>3.053363948039504</v>
+        <v>3.05336394803976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>86.41736411656959</v>
+        <v>86.41736411656973</v>
       </c>
       <c r="T17" t="n">
         <v>199.543755512853</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.4648235560681</v>
       </c>
       <c r="H18" t="n">
-        <v>84.43332439909338</v>
+        <v>84.43332439909341</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4094641400480441</v>
+        <v>0.4094641400481578</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>118.2126999360803</v>
+        <v>118.2126999360804</v>
       </c>
       <c r="T18" t="n">
-        <v>188.5615733221724</v>
+        <v>188.5615733221725</v>
       </c>
       <c r="U18" t="n">
         <v>225.7519943436628</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5775793398161</v>
       </c>
       <c r="H19" t="n">
-        <v>140.7698523416893</v>
+        <v>140.7698523416894</v>
       </c>
       <c r="I19" t="n">
-        <v>82.87295436662252</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.77815053892756</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.9576177120815</v>
       </c>
       <c r="T19" t="n">
-        <v>188.7592631347801</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.187389355474</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>210.5403619668523</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>232.6482895948911</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,10 +2096,10 @@
         <v>409.9224761670418</v>
       </c>
       <c r="H20" t="n">
-        <v>284.3742005846068</v>
+        <v>284.3742005846069</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.05336394803976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>86.41736411656956</v>
+        <v>86.41736411656973</v>
       </c>
       <c r="T20" t="n">
-        <v>52.51156739231081</v>
+        <v>199.543755512853</v>
       </c>
       <c r="U20" t="n">
         <v>250.915231999989</v>
@@ -2175,10 +2175,10 @@
         <v>134.4648235560681</v>
       </c>
       <c r="H21" t="n">
-        <v>84.43332439909338</v>
+        <v>84.43332439909341</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4094641400480157</v>
+        <v>0.4094641400481578</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>118.2126999360803</v>
+        <v>118.2126999360804</v>
       </c>
       <c r="T21" t="n">
-        <v>188.5615733221724</v>
+        <v>188.5615733221725</v>
       </c>
       <c r="U21" t="n">
         <v>225.7519943436628</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>136.70305312597</v>
+        <v>78.86187017735831</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5775793398161</v>
       </c>
       <c r="H22" t="n">
-        <v>140.7698523416893</v>
+        <v>140.7698523416894</v>
       </c>
       <c r="I22" t="n">
-        <v>82.87295436662251</v>
+        <v>82.87295436662261</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.77815053892753</v>
+        <v>68.77815053892769</v>
       </c>
       <c r="S22" t="n">
-        <v>181.9576177120815</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.6337893486265</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.187389355474</v>
@@ -2491,10 +2491,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>64.44601915223851</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>59.66944707863718</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>64.44601915223832</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>130.5670520278533</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>86.27179222793497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>168.5274800422128</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>85.25887760429661</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>89.53408223745146</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>64.4460191522375</v>
+        <v>58.35641342591676</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>210.5150276968753</v>
+        <v>113.3567031105535</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001832</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>298.9494425801217</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.22021153427997</v>
+        <v>83.55410938283558</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -4031,7 +4031,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503559</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.9464125187626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>10.2808711819659</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>121.3785521588703</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.58408713409607</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="C2" t="n">
-        <v>38.58408713409607</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="D2" t="n">
-        <v>38.58408713409607</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="E2" t="n">
-        <v>38.58408713409607</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="F2" t="n">
-        <v>31.63858638489259</v>
+        <v>31.63858638489258</v>
       </c>
       <c r="G2" t="n">
-        <v>16.42187496468646</v>
+        <v>16.42187496468645</v>
       </c>
       <c r="H2" t="n">
-        <v>16.42187496468646</v>
+        <v>16.42187496468645</v>
       </c>
       <c r="I2" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="J2" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="K2" t="n">
-        <v>16.11906240742436</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="L2" t="n">
-        <v>31.03296127036839</v>
+        <v>16.11906240742435</v>
       </c>
       <c r="M2" t="n">
-        <v>45.34427836107226</v>
+        <v>16.11906240742435</v>
       </c>
       <c r="N2" t="n">
-        <v>45.34427836107226</v>
+        <v>25.26958118063764</v>
       </c>
       <c r="O2" t="n">
-        <v>45.34427836107226</v>
+        <v>40.18348004358167</v>
       </c>
       <c r="P2" t="n">
-        <v>60.25817722401629</v>
+        <v>55.09737890652569</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="R2" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="S2" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="T2" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="U2" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="V2" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="W2" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="X2" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.58408713409607</v>
+        <v>45.04146580381014</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="C3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="D3" t="n">
-        <v>16.42187496468646</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="E3" t="n">
-        <v>1.205163544480326</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="F3" t="n">
-        <v>1.205163544480326</v>
+        <v>46.85529780509871</v>
       </c>
       <c r="G3" t="n">
-        <v>1.205163544480326</v>
+        <v>31.63858638489258</v>
       </c>
       <c r="H3" t="n">
-        <v>1.205163544480326</v>
+        <v>16.42187496468645</v>
       </c>
       <c r="I3" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="J3" t="n">
         <v>7.511783861477237</v>
       </c>
       <c r="K3" t="n">
-        <v>22.42568272442127</v>
+        <v>22.42568272442126</v>
       </c>
       <c r="L3" t="n">
-        <v>37.3395815873653</v>
+        <v>30.43037949812822</v>
       </c>
       <c r="M3" t="n">
-        <v>45.34427836107226</v>
+        <v>45.34427836107224</v>
       </c>
       <c r="N3" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="O3" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="P3" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="R3" t="n">
-        <v>45.04146580381015</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="S3" t="n">
-        <v>45.04146580381015</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="T3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="U3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="V3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="W3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="X3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.63858638489259</v>
+        <v>60.25817722401626</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="C4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="D4" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="E4" t="n">
-        <v>16.28824500479548</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="F4" t="n">
-        <v>16.28824500479548</v>
+        <v>29.82475438360401</v>
       </c>
       <c r="G4" t="n">
-        <v>16.28824500479548</v>
+        <v>29.82475438360401</v>
       </c>
       <c r="H4" t="n">
         <v>16.28824500479548</v>
@@ -4489,49 +4489,49 @@
         <v>16.28824500479548</v>
       </c>
       <c r="K4" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="L4" t="n">
-        <v>16.11906240742436</v>
+        <v>10.64900820751061</v>
       </c>
       <c r="M4" t="n">
-        <v>31.03296127036839</v>
+        <v>25.56290707045464</v>
       </c>
       <c r="N4" t="n">
-        <v>45.94686013331242</v>
+        <v>40.47680593339866</v>
       </c>
       <c r="O4" t="n">
-        <v>60.25817722401629</v>
+        <v>55.39070479634268</v>
       </c>
       <c r="P4" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="R4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="S4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="T4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="U4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="V4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="W4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="X4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="C5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="D5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="E5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="F5" t="n">
-        <v>22.87925363440055</v>
+        <v>31.63858638489258</v>
       </c>
       <c r="G5" t="n">
-        <v>7.662542214194414</v>
+        <v>16.42187496468645</v>
       </c>
       <c r="H5" t="n">
-        <v>7.662542214194414</v>
+        <v>16.42187496468645</v>
       </c>
       <c r="I5" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="J5" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="K5" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="L5" t="n">
-        <v>15.5164806351842</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="M5" t="n">
-        <v>30.43037949812823</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="N5" t="n">
-        <v>30.43037949812823</v>
+        <v>16.11906240742435</v>
       </c>
       <c r="O5" t="n">
-        <v>30.43037949812823</v>
+        <v>30.43037949812822</v>
       </c>
       <c r="P5" t="n">
-        <v>45.34427836107226</v>
+        <v>45.34427836107224</v>
       </c>
       <c r="Q5" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="R5" t="n">
-        <v>45.04146580381015</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="S5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="T5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="U5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="V5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="W5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="X5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="Y5" t="n">
-        <v>29.82475438360402</v>
+        <v>45.04146580381014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.63858638489259</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="C6" t="n">
-        <v>16.42187496468646</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="D6" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="E6" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="F6" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="G6" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="H6" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="I6" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="J6" t="n">
-        <v>12.38635102091409</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="K6" t="n">
-        <v>27.30024988385813</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="L6" t="n">
-        <v>42.21414874680216</v>
+        <v>16.11906240742435</v>
       </c>
       <c r="M6" t="n">
-        <v>45.34427836107226</v>
+        <v>31.03296127036838</v>
       </c>
       <c r="N6" t="n">
-        <v>45.34427836107226</v>
+        <v>45.34427836107224</v>
       </c>
       <c r="O6" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="P6" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="R6" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="S6" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="T6" t="n">
-        <v>60.25817722401629</v>
+        <v>46.85529780509871</v>
       </c>
       <c r="U6" t="n">
-        <v>60.25817722401629</v>
+        <v>31.63858638489258</v>
       </c>
       <c r="V6" t="n">
-        <v>60.25817722401629</v>
+        <v>16.42187496468645</v>
       </c>
       <c r="W6" t="n">
-        <v>60.25817722401629</v>
+        <v>16.42187496468645</v>
       </c>
       <c r="X6" t="n">
-        <v>60.25817722401629</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="Y6" t="n">
-        <v>46.85529780509873</v>
+        <v>1.205163544480325</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.3774443424187</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3774443424187</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3774443424187</v>
+        <v>41.59415576262451</v>
       </c>
       <c r="E7" t="n">
-        <v>26.3774443424187</v>
+        <v>26.37744434241839</v>
       </c>
       <c r="F7" t="n">
-        <v>11.16073292221257</v>
+        <v>11.16073292221226</v>
       </c>
       <c r="G7" t="n">
-        <v>11.16073292221257</v>
+        <v>11.16073292221226</v>
       </c>
       <c r="H7" t="n">
-        <v>11.16073292221257</v>
+        <v>11.16073292221226</v>
       </c>
       <c r="I7" t="n">
-        <v>11.16073292221257</v>
+        <v>11.16073292221226</v>
       </c>
       <c r="J7" t="n">
-        <v>11.16073292221257</v>
+        <v>11.16073292221226</v>
       </c>
       <c r="K7" t="n">
-        <v>1.205163544480326</v>
+        <v>1.205163544480325</v>
       </c>
       <c r="L7" t="n">
-        <v>15.5164806351842</v>
+        <v>16.11906240742435</v>
       </c>
       <c r="M7" t="n">
-        <v>30.43037949812823</v>
+        <v>31.03296127036838</v>
       </c>
       <c r="N7" t="n">
-        <v>45.34427836107226</v>
+        <v>35.24527901838863</v>
       </c>
       <c r="O7" t="n">
-        <v>60.25817722401629</v>
+        <v>50.15917788133265</v>
       </c>
       <c r="P7" t="n">
-        <v>60.25817722401629</v>
+        <v>60.25817722401626</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.25817722401629</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="R7" t="n">
-        <v>60.25817722401629</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="S7" t="n">
-        <v>60.25817722401629</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="T7" t="n">
-        <v>60.25817722401629</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="U7" t="n">
-        <v>60.25817722401629</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="V7" t="n">
-        <v>56.81086718283098</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="W7" t="n">
-        <v>41.59415576262484</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="X7" t="n">
-        <v>26.3774443424187</v>
+        <v>45.04146580381014</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.3774443424187</v>
+        <v>45.04146580381014</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.7826784871777</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="C8" t="n">
-        <v>359.7826784871777</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="D8" t="n">
-        <v>359.7826784871777</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="E8" t="n">
-        <v>359.7826784871777</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897905</v>
+        <v>163.4173927214891</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="X8" t="n">
-        <v>738.6222485201474</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="Y8" t="n">
-        <v>549.2024635036626</v>
+        <v>549.2024635036621</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.0474416122423</v>
+        <v>338.3894859156838</v>
       </c>
       <c r="C9" t="n">
-        <v>28.59441233111525</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W9" t="n">
-        <v>750.10234866528</v>
+        <v>717.2290559486534</v>
       </c>
       <c r="X9" t="n">
-        <v>560.6825636487952</v>
+        <v>527.8092709321686</v>
       </c>
       <c r="Y9" t="n">
-        <v>371.2627786323103</v>
+        <v>338.3894859156838</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.7219182438899</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>233.7219182438899</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>233.7219182438899</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>233.7219182438899</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>233.7219182438899</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>65.03309480680491</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>43.17590452428118</v>
+        <v>43.17590452428098</v>
       </c>
       <c r="L10" t="n">
-        <v>216.0634826394163</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M10" t="n">
-        <v>401.7138139340731</v>
+        <v>401.7138139340727</v>
       </c>
       <c r="N10" t="n">
-        <v>587.3641452287299</v>
+        <v>587.3641452287294</v>
       </c>
       <c r="O10" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P10" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846277</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768597</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S10" t="n">
-        <v>612.5614882768597</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T10" t="n">
-        <v>423.1417032603748</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="U10" t="n">
-        <v>423.1417032603748</v>
+        <v>557.3057129681425</v>
       </c>
       <c r="V10" t="n">
-        <v>423.1417032603748</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="W10" t="n">
-        <v>423.1417032603748</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X10" t="n">
-        <v>233.7219182438899</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>233.7219182438899</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2320.378079975526</v>
       </c>
       <c r="C11" t="n">
-        <v>1951.415563035114</v>
+        <v>1951.415563035115</v>
       </c>
       <c r="D11" t="n">
         <v>1593.149864428364</v>
@@ -5027,61 +5027,61 @@
         <v>1207.36161183012</v>
       </c>
       <c r="F11" t="n">
-        <v>796.375707040512</v>
+        <v>796.3757070405125</v>
       </c>
       <c r="G11" t="n">
-        <v>382.2696579648114</v>
+        <v>382.2696579648118</v>
       </c>
       <c r="H11" t="n">
-        <v>94.58321262698936</v>
+        <v>94.58321262698948</v>
       </c>
       <c r="I11" t="n">
-        <v>89.84349147628205</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="J11" t="n">
-        <v>359.1124665760603</v>
+        <v>359.1124665760599</v>
       </c>
       <c r="K11" t="n">
-        <v>813.4153777155811</v>
+        <v>813.4153777155802</v>
       </c>
       <c r="L11" t="n">
-        <v>1413.920073053468</v>
+        <v>1413.920073053466</v>
       </c>
       <c r="M11" t="n">
-        <v>2113.766688928562</v>
+        <v>2113.766688928558</v>
       </c>
       <c r="N11" t="n">
-        <v>2829.551363094457</v>
+        <v>2829.551363094453</v>
       </c>
       <c r="O11" t="n">
-        <v>3492.111272398163</v>
+        <v>3492.111272398158</v>
       </c>
       <c r="P11" t="n">
-        <v>4023.089825264662</v>
+        <v>4023.089825264655</v>
       </c>
       <c r="Q11" t="n">
-        <v>4373.659858726316</v>
+        <v>4373.659858726309</v>
       </c>
       <c r="R11" t="n">
-        <v>4492.174573814103</v>
+        <v>4492.174573814094</v>
       </c>
       <c r="S11" t="n">
-        <v>4403.905769935812</v>
+        <v>4492.174573814094</v>
       </c>
       <c r="T11" t="n">
-        <v>4202.158443044682</v>
+        <v>4290.427246922965</v>
       </c>
       <c r="U11" t="n">
-        <v>3948.705278404863</v>
+        <v>4036.974082283145</v>
       </c>
       <c r="V11" t="n">
-        <v>3617.642391061292</v>
+        <v>3705.911194939574</v>
       </c>
       <c r="W11" t="n">
-        <v>3264.873735791178</v>
+        <v>3353.14253966946</v>
       </c>
       <c r="X11" t="n">
-        <v>2891.407977530099</v>
+        <v>3097.11725201546</v>
       </c>
       <c r="Y11" t="n">
         <v>2706.977920039648</v>
@@ -5103,7 +5103,7 @@
         <v>618.1742762437786</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9368212383232</v>
+        <v>458.9368212383231</v>
       </c>
       <c r="F12" t="n">
         <v>312.4022632652081</v>
@@ -5112,31 +5112,31 @@
         <v>176.5562332602098</v>
       </c>
       <c r="H12" t="n">
-        <v>91.04814809794009</v>
+        <v>91.04814809794004</v>
       </c>
       <c r="I12" t="n">
-        <v>89.84349147628205</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="J12" t="n">
-        <v>231.4004014115659</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="K12" t="n">
-        <v>551.4985320687751</v>
+        <v>211.0520743076236</v>
       </c>
       <c r="L12" t="n">
-        <v>551.4985320687751</v>
+        <v>211.0520743076236</v>
       </c>
       <c r="M12" t="n">
-        <v>1127.181469263069</v>
+        <v>786.7350115019167</v>
       </c>
       <c r="N12" t="n">
-        <v>1732.509665722601</v>
+        <v>1392.063207961448</v>
       </c>
       <c r="O12" t="n">
-        <v>2264.046909822046</v>
+        <v>1923.600452060892</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.204524965287</v>
+        <v>2330.872885358631</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.204524965287</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.3517063574994</v>
+        <v>865.4186324578824</v>
       </c>
       <c r="C13" t="n">
-        <v>761.4155234295926</v>
+        <v>696.4824495299754</v>
       </c>
       <c r="D13" t="n">
-        <v>611.2988840172568</v>
+        <v>546.3658101176396</v>
       </c>
       <c r="E13" t="n">
-        <v>463.3857904348636</v>
+        <v>546.3658101176396</v>
       </c>
       <c r="F13" t="n">
-        <v>316.4958429369533</v>
+        <v>399.4758626197292</v>
       </c>
       <c r="G13" t="n">
-        <v>316.4958429369533</v>
+        <v>232.2065202490782</v>
       </c>
       <c r="H13" t="n">
-        <v>174.1328141641571</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="I13" t="n">
-        <v>89.84349147628205</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="J13" t="n">
-        <v>165.0042716538861</v>
+        <v>165.0042716538857</v>
       </c>
       <c r="K13" t="n">
-        <v>418.3533586786199</v>
+        <v>418.3533586786192</v>
       </c>
       <c r="L13" t="n">
-        <v>798.0793996354548</v>
+        <v>798.0793996354539</v>
       </c>
       <c r="M13" t="n">
-        <v>1208.836391399324</v>
+        <v>1208.836391399323</v>
       </c>
       <c r="N13" t="n">
-        <v>1615.26111640792</v>
+        <v>1615.261116407919</v>
       </c>
       <c r="O13" t="n">
-        <v>1974.643836186818</v>
+        <v>1974.643836186816</v>
       </c>
       <c r="P13" t="n">
-        <v>2258.637156012121</v>
+        <v>2258.637156012119</v>
       </c>
       <c r="Q13" t="n">
-        <v>2371.824329977056</v>
+        <v>2371.824329977053</v>
       </c>
       <c r="R13" t="n">
-        <v>2301.485350765489</v>
+        <v>2371.824329977053</v>
       </c>
       <c r="S13" t="n">
-        <v>2301.485350765489</v>
+        <v>2187.693068405021</v>
       </c>
       <c r="T13" t="n">
-        <v>2301.485350765489</v>
+        <v>1967.778655698874</v>
       </c>
       <c r="U13" t="n">
-        <v>2012.406129032294</v>
+        <v>1678.699433965679</v>
       </c>
       <c r="V13" t="n">
-        <v>1757.721640826408</v>
+        <v>1424.014945759792</v>
       </c>
       <c r="W13" t="n">
-        <v>1468.304470789447</v>
+        <v>1314.20076249943</v>
       </c>
       <c r="X13" t="n">
-        <v>1240.31491989143</v>
+        <v>1086.211211601413</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.000171187739</v>
+        <v>865.4186324578824</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2316.416132381294</v>
+        <v>2114.668805490156</v>
       </c>
       <c r="C14" t="n">
-        <v>1947.453615440882</v>
+        <v>1745.706288549744</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.187916834131</v>
+        <v>1387.440589942993</v>
       </c>
       <c r="E14" t="n">
-        <v>1207.36161183012</v>
+        <v>1001.652337344749</v>
       </c>
       <c r="F14" t="n">
-        <v>796.3757070405122</v>
+        <v>590.6664325551417</v>
       </c>
       <c r="G14" t="n">
-        <v>382.2696579648116</v>
+        <v>176.560383479441</v>
       </c>
       <c r="H14" t="n">
-        <v>94.58321262698938</v>
+        <v>94.58321262698948</v>
       </c>
       <c r="I14" t="n">
-        <v>89.84349147628204</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="J14" t="n">
         <v>359.1124665760599</v>
       </c>
       <c r="K14" t="n">
-        <v>813.4153777155798</v>
+        <v>813.4153777155802</v>
       </c>
       <c r="L14" t="n">
-        <v>1413.920073053467</v>
+        <v>1413.920073053466</v>
       </c>
       <c r="M14" t="n">
-        <v>2113.76668892856</v>
+        <v>2113.766688928558</v>
       </c>
       <c r="N14" t="n">
-        <v>2829.551363094456</v>
+        <v>2829.551363094453</v>
       </c>
       <c r="O14" t="n">
-        <v>3492.111272398162</v>
+        <v>3492.111272398158</v>
       </c>
       <c r="P14" t="n">
-        <v>4023.08982526466</v>
+        <v>4023.089825264655</v>
       </c>
       <c r="Q14" t="n">
-        <v>4373.659858726315</v>
+        <v>4373.659858726309</v>
       </c>
       <c r="R14" t="n">
-        <v>4492.174573814102</v>
+        <v>4492.174573814094</v>
       </c>
       <c r="S14" t="n">
-        <v>4403.905769935811</v>
+        <v>4403.905769935804</v>
       </c>
       <c r="T14" t="n">
-        <v>4403.905769935811</v>
+        <v>4202.158443044674</v>
       </c>
       <c r="U14" t="n">
-        <v>4150.452605295992</v>
+        <v>3948.705278404855</v>
       </c>
       <c r="V14" t="n">
-        <v>3819.389717952422</v>
+        <v>3617.642391061284</v>
       </c>
       <c r="W14" t="n">
-        <v>3466.621062682307</v>
+        <v>3264.873735791169</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.155304421227</v>
+        <v>2891.407977530089</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.015972445416</v>
+        <v>2501.268645554278</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>618.1742762437786</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9368212383232</v>
+        <v>458.9368212383231</v>
       </c>
       <c r="F15" t="n">
         <v>312.4022632652081</v>
@@ -5349,31 +5349,31 @@
         <v>176.5562332602098</v>
       </c>
       <c r="H15" t="n">
-        <v>91.04814809794009</v>
+        <v>91.04814809794004</v>
       </c>
       <c r="I15" t="n">
-        <v>89.84349147628204</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="J15" t="n">
-        <v>89.84349147628204</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="K15" t="n">
-        <v>409.9416221334913</v>
+        <v>409.9416221334905</v>
       </c>
       <c r="L15" t="n">
-        <v>409.9416221334913</v>
+        <v>886.6756025201171</v>
       </c>
       <c r="M15" t="n">
-        <v>786.735011501914</v>
+        <v>1462.35853971441</v>
       </c>
       <c r="N15" t="n">
-        <v>1392.063207961446</v>
+        <v>2067.686736173941</v>
       </c>
       <c r="O15" t="n">
-        <v>1923.600452060891</v>
+        <v>2553.204524965287</v>
       </c>
       <c r="P15" t="n">
-        <v>2330.872885358631</v>
+        <v>2553.204524965287</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.204524965287</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.1671808510475</v>
+        <v>617.9594632115102</v>
       </c>
       <c r="C16" t="n">
-        <v>335.2309979231406</v>
+        <v>617.9594632115102</v>
       </c>
       <c r="D16" t="n">
-        <v>335.2309979231406</v>
+        <v>527.0095613293815</v>
       </c>
       <c r="E16" t="n">
-        <v>335.2309979231406</v>
+        <v>379.0964677469885</v>
       </c>
       <c r="F16" t="n">
-        <v>257.1128338469332</v>
+        <v>232.2065202490782</v>
       </c>
       <c r="G16" t="n">
-        <v>89.84349147628204</v>
+        <v>232.2065202490782</v>
       </c>
       <c r="H16" t="n">
-        <v>89.84349147628204</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="I16" t="n">
-        <v>89.84349147628204</v>
+        <v>89.84349147628188</v>
       </c>
       <c r="J16" t="n">
-        <v>165.004271653886</v>
+        <v>165.0042716538857</v>
       </c>
       <c r="K16" t="n">
-        <v>418.3533586786198</v>
+        <v>418.3533586786192</v>
       </c>
       <c r="L16" t="n">
-        <v>798.079399635455</v>
+        <v>798.0793996354541</v>
       </c>
       <c r="M16" t="n">
-        <v>1208.836391399324</v>
+        <v>1208.836391399323</v>
       </c>
       <c r="N16" t="n">
-        <v>1615.26111640792</v>
+        <v>1615.261116407918</v>
       </c>
       <c r="O16" t="n">
-        <v>1974.643836186818</v>
+        <v>1974.643836186816</v>
       </c>
       <c r="P16" t="n">
-        <v>2258.637156012121</v>
+        <v>2258.637156012119</v>
       </c>
       <c r="Q16" t="n">
-        <v>2371.824329977055</v>
+        <v>2371.824329977053</v>
       </c>
       <c r="R16" t="n">
-        <v>2371.824329977055</v>
+        <v>2301.485350765486</v>
       </c>
       <c r="S16" t="n">
-        <v>2187.693068405023</v>
+        <v>2301.485350765486</v>
       </c>
       <c r="T16" t="n">
-        <v>1967.778655698877</v>
+        <v>2081.570938059339</v>
       </c>
       <c r="U16" t="n">
-        <v>1678.699433965682</v>
+        <v>1792.491716326145</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.014945759795</v>
+        <v>1537.807228120258</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.597775722835</v>
+        <v>1248.390058083297</v>
       </c>
       <c r="X16" t="n">
-        <v>906.6082248248174</v>
+        <v>1020.40050718528</v>
       </c>
       <c r="Y16" t="n">
-        <v>685.8156456812873</v>
+        <v>799.6079280417499</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2167.675002095516</v>
+        <v>2167.675002095508</v>
       </c>
       <c r="C17" t="n">
-        <v>1950.314052901146</v>
+        <v>1798.712485155096</v>
       </c>
       <c r="D17" t="n">
-        <v>1592.048354294396</v>
+        <v>1440.446786548346</v>
       </c>
       <c r="E17" t="n">
-        <v>1206.260101696152</v>
+        <v>1054.658533950101</v>
       </c>
       <c r="F17" t="n">
-        <v>795.2741969065441</v>
+        <v>643.6726291604938</v>
       </c>
       <c r="G17" t="n">
-        <v>381.2110896671079</v>
+        <v>229.6095219210576</v>
       </c>
       <c r="H17" t="n">
-        <v>93.96442240992928</v>
+        <v>93.9644224099294</v>
       </c>
       <c r="I17" t="n">
-        <v>90.88021640180858</v>
+        <v>90.88021640180841</v>
       </c>
       <c r="J17" t="n">
-        <v>363.7212979471951</v>
+        <v>363.7212979471942</v>
       </c>
       <c r="K17" t="n">
-        <v>823.3778706756104</v>
+        <v>823.3778706756098</v>
       </c>
       <c r="L17" t="n">
-        <v>1430.524256617662</v>
+        <v>1430.52425661766</v>
       </c>
       <c r="M17" t="n">
-        <v>2137.761033006664</v>
+        <v>2137.76103300666</v>
       </c>
       <c r="N17" t="n">
-        <v>2861.055448209757</v>
+        <v>2861.055448209752</v>
       </c>
       <c r="O17" t="n">
-        <v>3530.706593023704</v>
+        <v>3530.706593023699</v>
       </c>
       <c r="P17" t="n">
-        <v>4067.737351336662</v>
+        <v>4067.737351336655</v>
       </c>
       <c r="Q17" t="n">
-        <v>4422.852339038326</v>
+        <v>4422.852339038319</v>
       </c>
       <c r="R17" t="n">
-        <v>4544.010820090429</v>
+        <v>4544.010820090421</v>
       </c>
       <c r="S17" t="n">
-        <v>4456.720553306015</v>
+        <v>4456.720553306007</v>
       </c>
       <c r="T17" t="n">
-        <v>4255.161204303133</v>
+        <v>4255.161204303125</v>
       </c>
       <c r="U17" t="n">
-        <v>4001.711475010215</v>
+        <v>4001.711475010206</v>
       </c>
       <c r="V17" t="n">
-        <v>3670.648587666644</v>
+        <v>3670.648587666636</v>
       </c>
       <c r="W17" t="n">
-        <v>3317.87993239653</v>
+        <v>3317.879932396521</v>
       </c>
       <c r="X17" t="n">
-        <v>2944.41417413545</v>
+        <v>2944.414174135442</v>
       </c>
       <c r="Y17" t="n">
-        <v>2554.274842159638</v>
+        <v>2554.27484215963</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5625088229691</v>
+        <v>941.5625088229689</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1094795418421</v>
+        <v>767.1094795418419</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1750698805909</v>
+        <v>618.1750698805906</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9376148751353</v>
+        <v>458.9376148751352</v>
       </c>
       <c r="F18" t="n">
         <v>312.4030569020202</v>
@@ -5586,25 +5586,25 @@
         <v>176.5800028049817</v>
       </c>
       <c r="H18" t="n">
-        <v>91.29381654327125</v>
+        <v>91.29381654327119</v>
       </c>
       <c r="I18" t="n">
-        <v>90.88021640180858</v>
+        <v>90.88021640180841</v>
       </c>
       <c r="J18" t="n">
-        <v>234.5646484647172</v>
+        <v>234.5646484647167</v>
       </c>
       <c r="K18" t="n">
-        <v>558.299053304776</v>
+        <v>341.5924274064855</v>
       </c>
       <c r="L18" t="n">
-        <v>1039.92245307435</v>
+        <v>823.2158271760593</v>
       </c>
       <c r="M18" t="n">
-        <v>1404.604486171237</v>
+        <v>1404.604486171238</v>
       </c>
       <c r="N18" t="n">
-        <v>2015.789417909819</v>
+        <v>2015.78941790982</v>
       </c>
       <c r="O18" t="n">
         <v>2552.684430583484</v>
@@ -5619,7 +5619,7 @@
         <v>2552.684430583484</v>
       </c>
       <c r="S18" t="n">
-        <v>2433.277662971282</v>
+        <v>2433.277662971281</v>
       </c>
       <c r="T18" t="n">
         <v>2242.811427292319</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.0321215009277</v>
+        <v>1014.177930005693</v>
       </c>
       <c r="C19" t="n">
-        <v>484.0321215009277</v>
+        <v>845.241747077786</v>
       </c>
       <c r="D19" t="n">
-        <v>484.0321215009277</v>
+        <v>695.1251076654503</v>
       </c>
       <c r="E19" t="n">
-        <v>484.0321215009277</v>
+        <v>547.2120140830572</v>
       </c>
       <c r="F19" t="n">
-        <v>484.0321215009277</v>
+        <v>400.3220665851468</v>
       </c>
       <c r="G19" t="n">
-        <v>316.7820413596993</v>
+        <v>233.0719864439189</v>
       </c>
       <c r="H19" t="n">
-        <v>174.5902713175889</v>
+        <v>90.88021640180841</v>
       </c>
       <c r="I19" t="n">
-        <v>90.88021640180858</v>
+        <v>90.88021640180841</v>
       </c>
       <c r="J19" t="n">
         <v>167.3757355911581</v>
       </c>
       <c r="K19" t="n">
-        <v>422.9182088278133</v>
+        <v>422.9182088278129</v>
       </c>
       <c r="L19" t="n">
-        <v>805.4510289794655</v>
+        <v>805.4510289794646</v>
       </c>
       <c r="M19" t="n">
-        <v>1219.167375864787</v>
+        <v>1219.167375864785</v>
       </c>
       <c r="N19" t="n">
-        <v>1628.481089144531</v>
+        <v>1628.481089144529</v>
       </c>
       <c r="O19" t="n">
-        <v>1990.532257188135</v>
+        <v>1990.532257188133</v>
       </c>
       <c r="P19" t="n">
-        <v>2276.808895492578</v>
+        <v>2276.808895492575</v>
       </c>
       <c r="Q19" t="n">
-        <v>2391.576920818859</v>
+        <v>2391.576920818856</v>
       </c>
       <c r="R19" t="n">
-        <v>2322.104041486608</v>
+        <v>2391.576920818856</v>
       </c>
       <c r="S19" t="n">
-        <v>2138.308468040062</v>
+        <v>2207.781347372309</v>
       </c>
       <c r="T19" t="n">
-        <v>1947.642545681698</v>
+        <v>2207.781347372309</v>
       </c>
       <c r="U19" t="n">
-        <v>1658.564374615562</v>
+        <v>1918.703176306173</v>
       </c>
       <c r="V19" t="n">
-        <v>1403.879886409675</v>
+        <v>1918.703176306173</v>
       </c>
       <c r="W19" t="n">
-        <v>1114.462716372715</v>
+        <v>1629.286006269213</v>
       </c>
       <c r="X19" t="n">
-        <v>886.4731654746975</v>
+        <v>1416.618973979463</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6805863311673</v>
+        <v>1195.826394835933</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2316.192363833437</v>
+        <v>2319.276569841558</v>
       </c>
       <c r="C20" t="n">
-        <v>1947.229846893026</v>
+        <v>1950.314052901146</v>
       </c>
       <c r="D20" t="n">
-        <v>1588.964148286275</v>
+        <v>1592.048354294396</v>
       </c>
       <c r="E20" t="n">
-        <v>1203.175895688031</v>
+        <v>1206.260101696152</v>
       </c>
       <c r="F20" t="n">
-        <v>792.1899908984233</v>
+        <v>795.2741969065441</v>
       </c>
       <c r="G20" t="n">
-        <v>378.1268836589872</v>
+        <v>381.211089667108</v>
       </c>
       <c r="H20" t="n">
-        <v>90.88021640180858</v>
+        <v>93.96442240992937</v>
       </c>
       <c r="I20" t="n">
-        <v>90.88021640180858</v>
+        <v>90.8802164018084</v>
       </c>
       <c r="J20" t="n">
-        <v>363.7212979471944</v>
+        <v>363.7212979471933</v>
       </c>
       <c r="K20" t="n">
-        <v>823.3778706756098</v>
+        <v>823.3778706756077</v>
       </c>
       <c r="L20" t="n">
-        <v>1430.524256617662</v>
+        <v>1430.524256617658</v>
       </c>
       <c r="M20" t="n">
-        <v>2137.761033006664</v>
+        <v>2137.761033006658</v>
       </c>
       <c r="N20" t="n">
-        <v>2861.055448209756</v>
+        <v>2861.055448209752</v>
       </c>
       <c r="O20" t="n">
-        <v>3530.706593023704</v>
+        <v>3530.706593023698</v>
       </c>
       <c r="P20" t="n">
-        <v>4067.737351336662</v>
+        <v>4067.737351336654</v>
       </c>
       <c r="Q20" t="n">
-        <v>4422.852339038327</v>
+        <v>4422.852339038318</v>
       </c>
       <c r="R20" t="n">
-        <v>4544.010820090429</v>
+        <v>4544.01082009042</v>
       </c>
       <c r="S20" t="n">
-        <v>4456.720553306015</v>
+        <v>4456.720553306006</v>
       </c>
       <c r="T20" t="n">
-        <v>4403.678566041055</v>
+        <v>4255.161204303124</v>
       </c>
       <c r="U20" t="n">
-        <v>4150.228836748136</v>
+        <v>4001.711475010206</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.165949404566</v>
+        <v>3670.648587666635</v>
       </c>
       <c r="W20" t="n">
-        <v>3466.397294134451</v>
+        <v>3317.87993239652</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.931535873372</v>
+        <v>2944.414174135441</v>
       </c>
       <c r="Y20" t="n">
-        <v>2702.792203897559</v>
+        <v>2554.274842159629</v>
       </c>
     </row>
     <row r="21">
@@ -5817,43 +5817,43 @@
         <v>458.9376148751352</v>
       </c>
       <c r="F21" t="n">
-        <v>312.4030569020201</v>
+        <v>312.4030569020202</v>
       </c>
       <c r="G21" t="n">
         <v>176.5800028049817</v>
       </c>
       <c r="H21" t="n">
-        <v>91.29381654327122</v>
+        <v>91.29381654327118</v>
       </c>
       <c r="I21" t="n">
-        <v>90.88021640180858</v>
+        <v>90.8802164018084</v>
       </c>
       <c r="J21" t="n">
-        <v>90.88021640180858</v>
+        <v>234.5646484647167</v>
       </c>
       <c r="K21" t="n">
-        <v>90.88021640180858</v>
+        <v>341.5924274064855</v>
       </c>
       <c r="L21" t="n">
-        <v>572.5036161713832</v>
+        <v>823.2158271760593</v>
       </c>
       <c r="M21" t="n">
-        <v>1153.892275166563</v>
+        <v>1404.604486171238</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.077206905146</v>
+        <v>2015.78941790982</v>
       </c>
       <c r="O21" t="n">
-        <v>2301.97221957881</v>
+        <v>2552.684430583484</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.684430583483</v>
+        <v>2552.684430583484</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.684430583483</v>
+        <v>2552.684430583484</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.684430583483</v>
+        <v>2552.684430583484</v>
       </c>
       <c r="S21" t="n">
         <v>2433.277662971281</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>454.8659334061336</v>
+        <v>858.4936173058353</v>
       </c>
       <c r="C22" t="n">
-        <v>316.7820413596993</v>
+        <v>778.8351625812311</v>
       </c>
       <c r="D22" t="n">
-        <v>316.7820413596993</v>
+        <v>778.8351625812311</v>
       </c>
       <c r="E22" t="n">
-        <v>316.7820413596993</v>
+        <v>630.922068998838</v>
       </c>
       <c r="F22" t="n">
-        <v>316.7820413596993</v>
+        <v>484.0321215009276</v>
       </c>
       <c r="G22" t="n">
-        <v>316.7820413596993</v>
+        <v>316.7820413596992</v>
       </c>
       <c r="H22" t="n">
-        <v>174.5902713175889</v>
+        <v>174.5902713175888</v>
       </c>
       <c r="I22" t="n">
-        <v>90.88021640180858</v>
+        <v>90.8802164018084</v>
       </c>
       <c r="J22" t="n">
-        <v>167.3757355911584</v>
+        <v>167.3757355911581</v>
       </c>
       <c r="K22" t="n">
-        <v>422.9182088278136</v>
+        <v>422.9182088278129</v>
       </c>
       <c r="L22" t="n">
-        <v>805.4510289794658</v>
+        <v>805.4510289794641</v>
       </c>
       <c r="M22" t="n">
-        <v>1219.167375864787</v>
+        <v>1219.167375864785</v>
       </c>
       <c r="N22" t="n">
-        <v>1628.481089144531</v>
+        <v>1628.481089144529</v>
       </c>
       <c r="O22" t="n">
-        <v>1990.532257188136</v>
+        <v>1990.532257188133</v>
       </c>
       <c r="P22" t="n">
-        <v>2276.808895492578</v>
+        <v>2276.808895492575</v>
       </c>
       <c r="Q22" t="n">
-        <v>2391.576920818859</v>
+        <v>2391.576920818856</v>
       </c>
       <c r="R22" t="n">
-        <v>2322.104041486609</v>
+        <v>2322.104041486606</v>
       </c>
       <c r="S22" t="n">
-        <v>2138.308468040062</v>
+        <v>2322.104041486606</v>
       </c>
       <c r="T22" t="n">
-        <v>1918.476357586904</v>
+        <v>2322.104041486606</v>
       </c>
       <c r="U22" t="n">
-        <v>1629.398186520768</v>
+        <v>2033.02587042047</v>
       </c>
       <c r="V22" t="n">
-        <v>1374.713698314881</v>
+        <v>1778.341382214583</v>
       </c>
       <c r="W22" t="n">
-        <v>1085.296528277921</v>
+        <v>1488.924212177622</v>
       </c>
       <c r="X22" t="n">
-        <v>857.3069773799035</v>
+        <v>1260.934661279605</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.5143982363734</v>
+        <v>1040.142082136075</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,7 +5975,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
         <v>380.2757138127629</v>
@@ -5987,22 +5987,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>424.1437450015196</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
         <v>4202.751434297606</v>
@@ -6029,10 +6029,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>94.88738072612962</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>94.88738072612962</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>107.3505653988748</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>699.3689196510026</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>654.5023284669178</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196933</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196933</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196933</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G25" t="n">
-        <v>158.9453371942722</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H25" t="n">
-        <v>158.9453371942722</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6148,10 +6148,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948584</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6160,37 +6160,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
         <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2118.110795266826</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1829.034581581553</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1574.350093375666</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1284.932923338705</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>836.1507932971575</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,7 +6212,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127629</v>
@@ -6224,10 +6224,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L26" t="n">
         <v>1513.293909294976</v>
@@ -6263,13 +6263,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6315,7 +6315,7 @@
         <v>1655.794792137213</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695572</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O27" t="n">
         <v>2553.812354695766</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476001</v>
+        <v>728.0284588996641</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196932</v>
+        <v>559.0922759717571</v>
       </c>
       <c r="D28" t="n">
-        <v>326.1595320196932</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E28" t="n">
         <v>261.0625429770282</v>
@@ -6385,7 +6385,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
         <v>820.2210160948589</v>
@@ -6397,7 +6397,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
         <v>2311.699365782259</v>
@@ -6409,25 +6409,25 @@
         <v>2361.553154294195</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2229.66724315495</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>2009.988460869332</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062235</v>
+        <v>1720.912247184059</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856348</v>
+        <v>1466.227758978172</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1176.810588941212</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213699</v>
+        <v>948.8210380431942</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778398</v>
+        <v>728.0284588996641</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,46 +6449,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015196</v>
+        <v>424.1437450015187</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892015</v>
+        <v>893.7741287892006</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294975</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234013</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151119</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P29" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6534,28 +6534,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J30" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L30" t="n">
-        <v>1062.737405310563</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M30" t="n">
-        <v>1654.755759562691</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N30" t="n">
-        <v>2276.851722962027</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9524904749385</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9524904749385</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9524904749385</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411605</v>
+        <v>172.8304710411602</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948582</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139317</v>
@@ -6646,25 +6646,25 @@
         <v>2361.553154294195</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2191.323376473779</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2191.323376473779</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>2191.323376473779</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1936.638888267892</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1647.221718230931</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>1419.232167332914</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>1198.439588189384</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
         <v>1949.298676890958</v>
@@ -6686,16 +6686,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
         <v>373.34422365072</v>
@@ -6710,40 +6710,40 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
         <v>241.496329903453</v>
@@ -6789,10 +6789,10 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.851722962027</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149475997</v>
+        <v>495.0957149475998</v>
       </c>
       <c r="C34" t="n">
-        <v>326.1595320196927</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="D34" t="n">
-        <v>326.1595320196927</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E34" t="n">
-        <v>326.1595320196927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F34" t="n">
-        <v>326.1595320196927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
         <v>172.830471041161</v>
@@ -6877,10 +6877,10 @@
         <v>2311.699365782259</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
         <v>2178.382964033126</v>
@@ -6889,19 +6889,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062234</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856347</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
         <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213695</v>
+        <v>897.5367589213697</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778393</v>
+        <v>676.7441797778396</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,7 +6923,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6968,19 +6968,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>792.8215620441082</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149475992</v>
+        <v>783.7476391326292</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196923</v>
+        <v>614.8114562047223</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0625429770282</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0625429770282</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F37" t="n">
         <v>261.0625429770282</v>
@@ -7093,13 +7093,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948587</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M37" t="n">
         <v>1239.450608139318</v>
@@ -7117,28 +7117,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>897.536758921369</v>
+        <v>965.3961039628689</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778389</v>
+        <v>965.3961039628689</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963572</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>584.5806809953584</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>699.3689196510026</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N39" t="n">
-        <v>1321.464883050339</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.341358050533</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.8714428665047</v>
+        <v>957.5492919979874</v>
       </c>
       <c r="C40" t="n">
-        <v>402.9352599385978</v>
+        <v>788.6131090700806</v>
       </c>
       <c r="D40" t="n">
-        <v>402.9352599385978</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
         <v>432.4591980117247</v>
@@ -7354,28 +7354,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747508</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1957.166095389352</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1702.481607183465</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.302037738292</v>
+        <v>1587.979886869775</v>
       </c>
       <c r="X40" t="n">
-        <v>974.3124868402746</v>
+        <v>1359.990335971757</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.5199076967444</v>
+        <v>1139.197756828227</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.22209597083</v>
       </c>
       <c r="G41" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608051</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
         <v>2182.462224957688</v>
@@ -7433,19 +7433,19 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T41" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U41" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V41" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W41" t="n">
         <v>3467.429399206857</v>
@@ -7482,34 +7482,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>106.3138404733492</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>698.3321947254767</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124813</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.304633125007</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>743.5667998938112</v>
+        <v>494.0589900220731</v>
       </c>
       <c r="C43" t="n">
-        <v>574.630616965904</v>
+        <v>325.1228070941661</v>
       </c>
       <c r="D43" t="n">
-        <v>490.569797234308</v>
+        <v>240.7247168084737</v>
       </c>
       <c r="E43" t="n">
-        <v>342.6567036519148</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6567036519148</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G43" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H43" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K43" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L43" t="n">
-        <v>819.1842911693321</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M43" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N43" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O43" t="n">
         <v>2020.132206020528</v>
@@ -7588,31 +7588,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R43" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.205584149097</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T43" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U43" t="n">
-        <v>1736.450588178206</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V43" t="n">
-        <v>1481.766099972319</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W43" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X43" t="n">
-        <v>964.3593790373413</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y43" t="n">
-        <v>743.5667998938112</v>
+        <v>675.7074548523128</v>
       </c>
     </row>
     <row r="44">
@@ -7640,31 +7640,31 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H44" t="n">
+        <v>92.81162322608053</v>
+      </c>
+      <c r="I44" t="n">
         <v>92.81162322608054</v>
       </c>
-      <c r="I44" t="n">
-        <v>92.81162322607997</v>
-      </c>
       <c r="J44" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128763</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N44" t="n">
         <v>2919.747202874795</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q44" t="n">
         <v>4514.497374127289</v>
@@ -7676,19 +7676,19 @@
         <v>4555.113898070876</v>
       </c>
       <c r="T44" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U44" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V44" t="n">
-        <v>3769.398533126173</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W44" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206858</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.164119594979</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y44" t="n">
         <v>2703.824308969966</v>
@@ -7722,25 +7722,25 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I45" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J45" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K45" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.700680385037</v>
+        <v>919.0777936927001</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.700680385037</v>
+        <v>1511.096147944828</v>
       </c>
       <c r="N45" t="n">
-        <v>1683.796643784373</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O45" t="n">
-        <v>2230.673118784567</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P45" t="n">
         <v>2552.77562977024</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.9183350635722</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C46" t="n">
-        <v>392.9821521356653</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D46" t="n">
-        <v>392.9821521356653</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E46" t="n">
-        <v>245.0690585532723</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F46" t="n">
-        <v>245.0690585532723</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G46" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H46" t="n">
-        <v>92.81162322608054</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I46" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="J46" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K46" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L46" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M46" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N46" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O46" t="n">
         <v>2020.132206020528</v>
@@ -7828,28 +7828,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R46" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.205584149098</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T46" t="n">
-        <v>2025.52680186348</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="U46" t="n">
-        <v>1736.450588178207</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="V46" t="n">
-        <v>1481.76609997232</v>
+        <v>2018.233048942778</v>
       </c>
       <c r="W46" t="n">
-        <v>1192.348929935359</v>
+        <v>1728.815878905817</v>
       </c>
       <c r="X46" t="n">
-        <v>964.359379037342</v>
+        <v>1500.8263280078</v>
       </c>
       <c r="Y46" t="n">
-        <v>743.5667998938119</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>217.2455081421386</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
         <v>228.6134010812843</v>
       </c>
       <c r="M2" t="n">
-        <v>220.0807947196962</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>213.5346807839586</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>221.4413951568786</v>
       </c>
       <c r="P2" t="n">
-        <v>226.0519076271586</v>
+        <v>226.0519076271585</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,10 +8061,10 @@
         <v>140.7420421870042</v>
       </c>
       <c r="L3" t="n">
-        <v>137.2630041622905</v>
+        <v>130.2840121529601</v>
       </c>
       <c r="M3" t="n">
-        <v>131.1329991267687</v>
+        <v>138.1119911360991</v>
       </c>
       <c r="N3" t="n">
         <v>126.8145041310033</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>140.5600780003477</v>
+        <v>135.0347707277075</v>
       </c>
       <c r="M4" t="n">
         <v>144.0907938506603</v>
@@ -8149,10 +8149,10 @@
         <v>133.0859431698432</v>
       </c>
       <c r="O4" t="n">
-        <v>143.9860116508589</v>
+        <v>144.5946801076672</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>160.829553643206</v>
+        <v>160.8295536432055</v>
       </c>
       <c r="K5" t="n">
-        <v>189.790781618986</v>
+        <v>189.7907816189853</v>
       </c>
       <c r="L5" t="n">
-        <v>212.6336159692464</v>
+        <v>198.1777401200496</v>
       </c>
       <c r="M5" t="n">
-        <v>203.5861342004571</v>
+        <v>188.521589894452</v>
       </c>
       <c r="N5" t="n">
-        <v>186.9116538083279</v>
+        <v>201.9761981143309</v>
       </c>
       <c r="O5" t="n">
-        <v>189.9653353567198</v>
+        <v>204.4212112059147</v>
       </c>
       <c r="P5" t="n">
-        <v>212.0450588467277</v>
+        <v>212.0450588467268</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.6480472679108</v>
+        <v>211.6480472679101</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>114.796906576334</v>
       </c>
       <c r="K6" t="n">
-        <v>132.3264748283057</v>
+        <v>117.2619305223012</v>
       </c>
       <c r="L6" t="n">
-        <v>125.9472353030035</v>
+        <v>125.9472353030029</v>
       </c>
       <c r="M6" t="n">
-        <v>113.0042253867645</v>
+        <v>124.9070226076465</v>
       </c>
       <c r="N6" t="n">
-        <v>98.19549507220944</v>
+        <v>112.6513709214044</v>
       </c>
       <c r="O6" t="n">
-        <v>127.3384758243884</v>
+        <v>127.3384758243877</v>
       </c>
       <c r="P6" t="n">
-        <v>109.6380780288379</v>
+        <v>109.6380780288373</v>
       </c>
       <c r="Q6" t="n">
-        <v>123.7135823814102</v>
+        <v>123.7135823814098</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>133.4555739197072</v>
+        <v>134.0642423765151</v>
       </c>
       <c r="M7" t="n">
-        <v>137.2418459686903</v>
+        <v>137.2418459686898</v>
       </c>
       <c r="N7" t="n">
-        <v>126.3998479603552</v>
+        <v>115.5901700664924</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4189890058363</v>
+        <v>138.4189890058358</v>
       </c>
       <c r="P7" t="n">
-        <v>124.8055538769873</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>42.5627518647109</v>
+        <v>42.56275186471073</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909045</v>
+        <v>51.31264782908954</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782908809</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09740422131539717</v>
+        <v>0.09740422131540427</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.38611583950795</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>116.2660659010087</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.6521817405071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5966489469446</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.44642946099636</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>69.63558941945145</v>
       </c>
       <c r="S13" t="n">
-        <v>182.289948956312</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.7152685790847</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>177.8069569088323</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.55305213544123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.92232811829037</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>203.6521817405171</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.7298536222183</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>58.57507015490516</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>68.08406558748591</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5966489469446</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9393984850683</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>83.44642946099627</v>
+        <v>83.44642946099636</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.63558941945132</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>182.289948956312</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>150.0855520685814</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>150.08555206859</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>82.87295436662261</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>68.77815053892769</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>28.87452621384634</v>
+        <v>217.6337893486265</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>15.16929342218484</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>150.0855520685895</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.053363948039475</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>147.0321881205422</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>30.54376797265783</v>
+        <v>88.38495092126952</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5775793398161</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.9576177120815</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.6337893486265</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.35855759217051</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>81.98794349433085</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>50.77143633060567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.97502887069287</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>12.81100831624616</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>81.98794349433122</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>76.0079706397155</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440902</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.16945386597486</v>
+        <v>90.25905959229559</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>76.00797063971575</v>
+        <v>173.1662952260375</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.39526148393239</v>
+        <v>65.06136363537678</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>50.2915261372904</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.29152613729099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>155.261181695201</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>130.7590911649577</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>925042.0025970245</v>
+        <v>925042.0025970243</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836441.5766036181</v>
+        <v>836441.5766036173</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836441.576603618</v>
+        <v>836441.5766036174</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841436.8653195611</v>
+        <v>841436.8653195603</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841436.8653195611</v>
+        <v>841436.8653195603</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856273.8557189861</v>
+        <v>856273.855718986</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856273.855718986</v>
+        <v>856273.8557189861</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856273.855718986</v>
+        <v>856273.8557189859</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856273.855718986</v>
+        <v>856273.8557189859</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856273.8557189859</v>
+        <v>856273.855718986</v>
       </c>
     </row>
     <row r="14">
@@ -26317,43 +26317,43 @@
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>552341.5367056386</v>
+        <v>552341.536705638</v>
       </c>
       <c r="F2" t="n">
-        <v>552341.5367056387</v>
+        <v>552341.5367056379</v>
       </c>
       <c r="G2" t="n">
-        <v>555671.7291829339</v>
+        <v>555671.7291829335</v>
       </c>
       <c r="H2" t="n">
-        <v>555671.7291829337</v>
+        <v>555671.7291829336</v>
       </c>
       <c r="I2" t="n">
-        <v>564678.0839829915</v>
+        <v>564678.0839829914</v>
       </c>
       <c r="J2" t="n">
-        <v>564678.0839829914</v>
+        <v>564678.0839829916</v>
       </c>
       <c r="K2" t="n">
         <v>564678.0839829915</v>
       </c>
       <c r="L2" t="n">
-        <v>564678.0839829914</v>
+        <v>564678.0839829915</v>
       </c>
       <c r="M2" t="n">
-        <v>564678.0839829914</v>
+        <v>564678.0839829913</v>
       </c>
       <c r="N2" t="n">
-        <v>564678.0839829914</v>
+        <v>564678.0839829913</v>
       </c>
       <c r="O2" t="n">
-        <v>561875.8401466215</v>
+        <v>561875.8401466213</v>
       </c>
       <c r="P2" t="n">
-        <v>561875.8401466215</v>
+        <v>561875.8401466211</v>
       </c>
     </row>
     <row r="3">
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38795.41738679952</v>
+        <v>38795.41738679951</v>
       </c>
       <c r="C3" t="n">
-        <v>22063.24908613817</v>
+        <v>22063.2490861395</v>
       </c>
       <c r="D3" t="n">
-        <v>472545.899968266</v>
+        <v>472545.8999682647</v>
       </c>
       <c r="E3" t="n">
-        <v>905413.1358318168</v>
+        <v>905413.135831815</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11773.78138915246</v>
+        <v>11773.78138915243</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24696.0439761143</v>
+        <v>24696.04397611627</v>
       </c>
       <c r="J3" t="n">
         <v>3941.547630400139</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43648.33779856017</v>
+        <v>43648.33779856026</v>
       </c>
       <c r="M3" t="n">
-        <v>233134.8416989968</v>
+        <v>233134.8416989963</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>405712.3601412913</v>
       </c>
       <c r="C4" t="n">
-        <v>400471.3136652071</v>
+        <v>400471.3136652068</v>
       </c>
       <c r="D4" t="n">
         <v>271884.2225707669</v>
       </c>
       <c r="E4" t="n">
-        <v>8701.452760460064</v>
+        <v>8701.452760460063</v>
       </c>
       <c r="F4" t="n">
         <v>8701.452760460063</v>
       </c>
       <c r="G4" t="n">
-        <v>8708.160053706859</v>
+        <v>8708.160053706819</v>
       </c>
       <c r="H4" t="n">
-        <v>8708.160053706859</v>
+        <v>8708.160053706857</v>
       </c>
       <c r="I4" t="n">
-        <v>10054.3087000083</v>
+        <v>10054.30870000827</v>
       </c>
       <c r="J4" t="n">
         <v>10054.30870000829</v>
       </c>
       <c r="K4" t="n">
-        <v>10054.30870000829</v>
+        <v>10054.30870000827</v>
       </c>
       <c r="L4" t="n">
-        <v>10054.30870000823</v>
+        <v>10054.30870000828</v>
       </c>
       <c r="M4" t="n">
         <v>10054.30870000826</v>
       </c>
       <c r="N4" t="n">
-        <v>10054.30870000832</v>
+        <v>10054.30870000829</v>
       </c>
       <c r="O4" t="n">
-        <v>8720.723770518931</v>
+        <v>8720.723770518947</v>
       </c>
       <c r="P4" t="n">
         <v>8720.723770518933</v>
@@ -26470,22 +26470,22 @@
         <v>35306.98777748198</v>
       </c>
       <c r="C5" t="n">
-        <v>35835.18651862005</v>
+        <v>35835.18651862008</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>97226.33153317001</v>
+        <v>97226.33153316984</v>
       </c>
       <c r="F5" t="n">
-        <v>97226.33153317</v>
+        <v>97226.33153316984</v>
       </c>
       <c r="G5" t="n">
-        <v>98244.77669074739</v>
+        <v>98244.77669074721</v>
       </c>
       <c r="H5" t="n">
-        <v>98244.77669074739</v>
+        <v>98244.7766907472</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
@@ -26503,7 +26503,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94909.04623621404</v>
+        <v>94909.026852774</v>
       </c>
       <c r="C6" t="n">
-        <v>116359.4896350332</v>
+        <v>116359.4896350322</v>
       </c>
       <c r="D6" t="n">
-        <v>-226686.6840456485</v>
+        <v>-226686.684045647</v>
       </c>
       <c r="E6" t="n">
-        <v>-458999.3834198083</v>
+        <v>-459079.3394990903</v>
       </c>
       <c r="F6" t="n">
-        <v>446413.7524120089</v>
+        <v>446333.7963327246</v>
       </c>
       <c r="G6" t="n">
-        <v>436945.0110493272</v>
+        <v>436876.9485146053</v>
       </c>
       <c r="H6" t="n">
-        <v>448718.7924384794</v>
+        <v>448650.7299037579</v>
       </c>
       <c r="I6" t="n">
-        <v>428997.6918496304</v>
+        <v>428961.7948677641</v>
       </c>
       <c r="J6" t="n">
-        <v>449752.1881953444</v>
+        <v>449716.2912134803</v>
       </c>
       <c r="K6" t="n">
-        <v>453693.7358257447</v>
+        <v>453657.8388438804</v>
       </c>
       <c r="L6" t="n">
-        <v>410045.3980271845</v>
+        <v>410009.5010453201</v>
       </c>
       <c r="M6" t="n">
-        <v>220558.8941267478</v>
+        <v>220522.9971448838</v>
       </c>
       <c r="N6" t="n">
-        <v>453693.7358257445</v>
+        <v>453657.8388438802</v>
       </c>
       <c r="O6" t="n">
-        <v>453012.9878622642</v>
+        <v>452967.0828666984</v>
       </c>
       <c r="P6" t="n">
-        <v>453012.9878622642</v>
+        <v>452967.0828666982</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>59.25056077133054</v>
+        <v>59.250560771332</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1327.765046385122</v>
+        <v>1327.76504638512</v>
       </c>
       <c r="F3" t="n">
-        <v>1327.765046385121</v>
+        <v>1327.76504638512</v>
       </c>
       <c r="G3" t="n">
-        <v>1338.340010338205</v>
+        <v>1338.340010338203</v>
       </c>
       <c r="H3" t="n">
-        <v>1338.340010338205</v>
+        <v>1338.340010338203</v>
       </c>
       <c r="I3" t="n">
         <v>1358.041048716386</v>
@@ -26793,19 +26793,19 @@
         <v>15.06454430600407</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>1123.043643453526</v>
+        <v>1123.043643453524</v>
       </c>
       <c r="F4" t="n">
-        <v>1123.043643453525</v>
+        <v>1123.043643453524</v>
       </c>
       <c r="G4" t="n">
-        <v>1136.002705022607</v>
+        <v>1136.002705022605</v>
       </c>
       <c r="H4" t="n">
-        <v>1136.002705022607</v>
+        <v>1136.002705022605</v>
       </c>
       <c r="I4" t="n">
         <v>1173.104351895088</v>
@@ -26826,7 +26826,7 @@
         <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="P4" t="n">
         <v>1160.145290326007</v>
@@ -26960,25 +26960,25 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>24.22930005220522</v>
+        <v>24.22930005220667</v>
       </c>
       <c r="D3" t="n">
-        <v>489.2193801415742</v>
+        <v>489.2193801415726</v>
       </c>
       <c r="E3" t="n">
-        <v>779.295105472217</v>
+        <v>779.2951054722153</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>10.57496395308317</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.70103837818101</v>
+        <v>19.70103837818283</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,22 +27015,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4610428603159</v>
+        <v>172.4610428603158</v>
       </c>
       <c r="E4" t="n">
-        <v>935.5180562872056</v>
+        <v>935.5180562872038</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.95906156908145</v>
+        <v>12.95906156908131</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.10164687248061</v>
+        <v>37.10164687248289</v>
       </c>
       <c r="J4" t="n">
         <v>15.06454430600411</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4610428603157</v>
+        <v>172.4610428603161</v>
       </c>
       <c r="M4" t="n">
-        <v>935.5180562872058</v>
+        <v>935.5180562872038</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.4610428603159</v>
+        <v>172.4610428603158</v>
       </c>
       <c r="M4" t="n">
-        <v>935.5180562872056</v>
+        <v>935.5180562872038</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908145</v>
+        <v>12.95906156908131</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>393.6071951169831</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>125.9607373792752</v>
+        <v>125.9607373792753</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.8451337730367</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>132.3805212586347</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.5805361493969</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>131.8003617686555</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>122.2036441077352</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>96.44338279744038</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>71.73853291668334</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.41629959437549</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>186.5922503474435</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.5509287122083</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>133.0328183615487</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3565037169272</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>148.2645398128568</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>393.6071951169831</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>337.0354059127545</v>
       </c>
       <c r="I5" t="n">
-        <v>194.900140992367</v>
+        <v>186.2284015693796</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>119.8421694620719</v>
+        <v>119.8421694620715</v>
       </c>
       <c r="S5" t="n">
-        <v>188.5276975271691</v>
+        <v>203.5922418331731</v>
       </c>
       <c r="T5" t="n">
         <v>222.0531587911605</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.4686393438633</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>157.6439546823117</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.3805212586347</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>111.0045976816052</v>
       </c>
       <c r="I6" t="n">
-        <v>85.00873754900994</v>
+        <v>85.00873754900982</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.24508945189827</v>
+        <v>92.24508945189808</v>
       </c>
       <c r="S6" t="n">
         <v>169.3159435107568</v>
       </c>
       <c r="T6" t="n">
-        <v>199.6510375122853</v>
+        <v>186.3821868875569</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9329975676581</v>
+        <v>210.8684532616541</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.7360428434212</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>190.7084408974734</v>
       </c>
       <c r="Y6" t="n">
-        <v>192.413845152576</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>145.2026360774386</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3694183405651</v>
       </c>
       <c r="F7" t="n">
         <v>130.3565037169272</v>
@@ -27792,10 +27792,10 @@
         <v>161.2772208937615</v>
       </c>
       <c r="I7" t="n">
-        <v>152.2373461562491</v>
+        <v>152.237346156249</v>
       </c>
       <c r="J7" t="n">
-        <v>85.80521927866232</v>
+        <v>85.80521927866214</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.21520857522347</v>
+        <v>62.15066426921919</v>
       </c>
       <c r="R7" t="n">
-        <v>172.4892393513498</v>
+        <v>172.4892393513497</v>
       </c>
       <c r="S7" t="n">
-        <v>222.1545763156831</v>
+        <v>222.154576315683</v>
       </c>
       <c r="T7" t="n">
         <v>227.4890687141417</v>
@@ -27831,13 +27831,13 @@
         <v>286.3132014324806</v>
       </c>
       <c r="V7" t="n">
-        <v>248.7248063830545</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>271.4584540305869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.6451110830331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>253.0688077092981</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>391.6379580593311</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>133.9886238604072</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>219.1504233714597</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715747</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098435</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="10">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>103.9029334766552</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378009</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713039</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750811</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>124.6935433343423</v>
       </c>
       <c r="X10" t="n">
-        <v>38.18406822271714</v>
+        <v>38.18406822271726</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2381932091309769</v>
+        <v>0.2381932091309827</v>
       </c>
       <c r="H5" t="n">
-        <v>2.439396203012617</v>
+        <v>2.439396203012677</v>
       </c>
       <c r="I5" t="n">
-        <v>9.182943695021995</v>
+        <v>9.182943695022221</v>
       </c>
       <c r="J5" t="n">
-        <v>20.21635088348027</v>
+        <v>20.21635088348076</v>
       </c>
       <c r="K5" t="n">
-        <v>30.29906942599452</v>
+        <v>30.29906942599527</v>
       </c>
       <c r="L5" t="n">
-        <v>37.58867484993667</v>
+        <v>37.58867484993759</v>
       </c>
       <c r="M5" t="n">
-        <v>41.82464333281968</v>
+        <v>41.8246433328207</v>
       </c>
       <c r="N5" t="n">
-        <v>42.50140978826306</v>
+        <v>42.50140978826411</v>
       </c>
       <c r="O5" t="n">
-        <v>40.13287606496691</v>
+        <v>40.1328760649679</v>
       </c>
       <c r="P5" t="n">
-        <v>34.25248121454592</v>
+        <v>34.25248121454675</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.7221869125428</v>
+        <v>25.72218691254343</v>
       </c>
       <c r="R5" t="n">
-        <v>14.96240417307374</v>
+        <v>14.96240417307411</v>
       </c>
       <c r="S5" t="n">
-        <v>5.427827753072141</v>
+        <v>5.427827753072274</v>
       </c>
       <c r="T5" t="n">
-        <v>1.042690772970852</v>
+        <v>1.042690772970877</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01905545673047815</v>
+        <v>0.01905545673047861</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1274446024138053</v>
+        <v>0.1274446024138084</v>
       </c>
       <c r="H6" t="n">
-        <v>1.230846554891225</v>
+        <v>1.230846554891255</v>
       </c>
       <c r="I6" t="n">
-        <v>4.387895302405139</v>
+        <v>4.387895302405248</v>
       </c>
       <c r="J6" t="n">
-        <v>12.04072009033237</v>
+        <v>12.04072009033267</v>
       </c>
       <c r="K6" t="n">
-        <v>20.57950845205733</v>
+        <v>20.57950845205783</v>
       </c>
       <c r="L6" t="n">
-        <v>27.67168878287471</v>
+        <v>27.67168878287539</v>
       </c>
       <c r="M6" t="n">
-        <v>32.29155562037514</v>
+        <v>32.29155562037594</v>
       </c>
       <c r="N6" t="n">
-        <v>33.14621701112387</v>
+        <v>33.14621701112468</v>
       </c>
       <c r="O6" t="n">
-        <v>30.32231292606008</v>
+        <v>30.32231292606082</v>
       </c>
       <c r="P6" t="n">
-        <v>24.33632938549235</v>
+        <v>24.33632938549295</v>
       </c>
       <c r="Q6" t="n">
-        <v>16.26819170461136</v>
+        <v>16.26819170461176</v>
       </c>
       <c r="R6" t="n">
-        <v>7.912744700744863</v>
+        <v>7.912744700745058</v>
       </c>
       <c r="S6" t="n">
-        <v>2.367227593080988</v>
+        <v>2.367227593081046</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5136911825363467</v>
+        <v>0.5136911825363593</v>
       </c>
       <c r="U6" t="n">
-        <v>0.008384513316697722</v>
+        <v>0.008384513316697928</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1068452735220715</v>
+        <v>0.1068452735220741</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9499516136780541</v>
+        <v>0.9499516136780776</v>
       </c>
       <c r="I7" t="n">
-        <v>3.213128771009204</v>
+        <v>3.213128771009283</v>
       </c>
       <c r="J7" t="n">
-        <v>7.553960838010451</v>
+        <v>7.553960838010637</v>
       </c>
       <c r="K7" t="n">
-        <v>12.41347814192794</v>
+        <v>12.41347814192824</v>
       </c>
       <c r="L7" t="n">
-        <v>15.88497821072688</v>
+        <v>15.88497821072727</v>
       </c>
       <c r="M7" t="n">
-        <v>16.74848228491889</v>
+        <v>16.7484822849193</v>
       </c>
       <c r="N7" t="n">
-        <v>16.35024081088209</v>
+        <v>16.35024081088249</v>
       </c>
       <c r="O7" t="n">
-        <v>15.10209375201062</v>
+        <v>15.10209375201099</v>
       </c>
       <c r="P7" t="n">
-        <v>12.92245017216035</v>
+        <v>12.92245017216066</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.946834676470912</v>
+        <v>8.946834676471131</v>
       </c>
       <c r="R7" t="n">
-        <v>4.804152025819684</v>
+        <v>4.804152025819802</v>
       </c>
       <c r="S7" t="n">
-        <v>1.86202172128919</v>
+        <v>1.862021721289236</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4565207141397598</v>
+        <v>0.456520714139771</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005827924010294814</v>
+        <v>0.005827924010294957</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,13 +31516,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
         <v>280.4720934528639</v>
@@ -31534,25 +31534,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31598,7 +31598,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31607,16 +31607,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
         <v>225.2762668628872</v>
@@ -31625,16 +31625,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31701,19 +31701,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.33774893019144</v>
+        <v>5.337748930191433</v>
       </c>
       <c r="H11" t="n">
-        <v>54.66522123132309</v>
+        <v>54.66522123132302</v>
       </c>
       <c r="I11" t="n">
-        <v>205.7835656312057</v>
+        <v>205.7835656312054</v>
       </c>
       <c r="J11" t="n">
-        <v>453.0347682638361</v>
+        <v>453.0347682638355</v>
       </c>
       <c r="K11" t="n">
-        <v>678.9816804788398</v>
+        <v>678.9816804788389</v>
       </c>
       <c r="L11" t="n">
-        <v>842.3368143011863</v>
+        <v>842.3368143011852</v>
       </c>
       <c r="M11" t="n">
-        <v>937.2620068384783</v>
+        <v>937.2620068384771</v>
       </c>
       <c r="N11" t="n">
-        <v>952.4278859863848</v>
+        <v>952.4278859863836</v>
       </c>
       <c r="O11" t="n">
-        <v>899.3506450617937</v>
+        <v>899.3506450617924</v>
       </c>
       <c r="P11" t="n">
-        <v>767.5749683476923</v>
+        <v>767.5749683476913</v>
       </c>
       <c r="Q11" t="n">
-        <v>576.4168347852112</v>
+        <v>576.4168347852104</v>
       </c>
       <c r="R11" t="n">
-        <v>335.2973712361383</v>
+        <v>335.2973712361378</v>
       </c>
       <c r="S11" t="n">
-        <v>121.6339537467376</v>
+        <v>121.6339537467374</v>
       </c>
       <c r="T11" t="n">
-        <v>23.36599594191304</v>
+        <v>23.36599594191301</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4270199144153151</v>
+        <v>0.4270199144153145</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.855947458262337</v>
+        <v>2.855947458262333</v>
       </c>
       <c r="H12" t="n">
-        <v>27.58243992584942</v>
+        <v>27.58243992584938</v>
       </c>
       <c r="I12" t="n">
-        <v>98.32976994455855</v>
+        <v>98.32976994455842</v>
       </c>
       <c r="J12" t="n">
-        <v>269.8244043790746</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>461.1728840826512</v>
+        <v>260.2743509252092</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>723.6319502798912</v>
+        <v>723.6319502798902</v>
       </c>
       <c r="N12" t="n">
-        <v>742.7843347697295</v>
+        <v>742.7843347697285</v>
       </c>
       <c r="O12" t="n">
-        <v>679.5025516156009</v>
+        <v>679.5025516155999</v>
       </c>
       <c r="P12" t="n">
-        <v>426.052806548917</v>
+        <v>545.3607036746731</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>364.5591878301182</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>53.04797142868856</v>
+        <v>53.04797142868848</v>
       </c>
       <c r="T12" t="n">
-        <v>11.51147243045214</v>
+        <v>11.51147243045212</v>
       </c>
       <c r="U12" t="n">
-        <v>0.187891280148838</v>
+        <v>0.1878912801488378</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.394330411514153</v>
+        <v>2.39433041151415</v>
       </c>
       <c r="H13" t="n">
-        <v>21.28777402237131</v>
+        <v>21.28777402237128</v>
       </c>
       <c r="I13" t="n">
-        <v>72.00404546626203</v>
+        <v>72.00404546626193</v>
       </c>
       <c r="J13" t="n">
-        <v>169.2791600940506</v>
+        <v>169.2791600940504</v>
       </c>
       <c r="K13" t="n">
-        <v>278.1776605377352</v>
+        <v>278.1776605377348</v>
       </c>
       <c r="L13" t="n">
-        <v>355.9716322718407</v>
+        <v>355.9716322718402</v>
       </c>
       <c r="M13" t="n">
-        <v>375.3221753248959</v>
+        <v>375.3221753248953</v>
       </c>
       <c r="N13" t="n">
-        <v>366.3978528819798</v>
+        <v>366.3978528819792</v>
       </c>
       <c r="O13" t="n">
-        <v>338.4277203474734</v>
+        <v>338.4277203474729</v>
       </c>
       <c r="P13" t="n">
-        <v>289.5833799525844</v>
+        <v>289.583379952584</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.4925220041534</v>
+        <v>200.4925220041531</v>
       </c>
       <c r="R13" t="n">
-        <v>107.6578019577182</v>
+        <v>107.657801957718</v>
       </c>
       <c r="S13" t="n">
-        <v>41.72664908066028</v>
+        <v>41.72664908066022</v>
       </c>
       <c r="T13" t="n">
-        <v>10.23032084919683</v>
+        <v>10.23032084919682</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1305998406280449</v>
+        <v>0.1305998406280447</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.337748930191439</v>
+        <v>5.337748930191433</v>
       </c>
       <c r="H14" t="n">
-        <v>54.66522123132309</v>
+        <v>54.66522123132302</v>
       </c>
       <c r="I14" t="n">
-        <v>205.7835656312056</v>
+        <v>205.7835656312054</v>
       </c>
       <c r="J14" t="n">
-        <v>453.034768263836</v>
+        <v>453.0347682638355</v>
       </c>
       <c r="K14" t="n">
-        <v>678.9816804788397</v>
+        <v>678.9816804788389</v>
       </c>
       <c r="L14" t="n">
-        <v>842.3368143011862</v>
+        <v>842.3368143011852</v>
       </c>
       <c r="M14" t="n">
-        <v>937.2620068384782</v>
+        <v>937.2620068384771</v>
       </c>
       <c r="N14" t="n">
-        <v>952.4278859863847</v>
+        <v>952.4278859863836</v>
       </c>
       <c r="O14" t="n">
-        <v>899.3506450617934</v>
+        <v>899.3506450617924</v>
       </c>
       <c r="P14" t="n">
-        <v>767.5749683476922</v>
+        <v>767.5749683476913</v>
       </c>
       <c r="Q14" t="n">
-        <v>576.4168347852111</v>
+        <v>576.4168347852104</v>
       </c>
       <c r="R14" t="n">
-        <v>335.2973712361382</v>
+        <v>335.2973712361378</v>
       </c>
       <c r="S14" t="n">
-        <v>121.6339537467375</v>
+        <v>121.6339537467374</v>
       </c>
       <c r="T14" t="n">
-        <v>23.36599594191303</v>
+        <v>23.36599594191301</v>
       </c>
       <c r="U14" t="n">
-        <v>0.427019914415315</v>
+        <v>0.4270199144153145</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.855947458262337</v>
+        <v>2.855947458262333</v>
       </c>
       <c r="H15" t="n">
-        <v>27.58243992584941</v>
+        <v>27.58243992584938</v>
       </c>
       <c r="I15" t="n">
-        <v>98.32976994455854</v>
+        <v>98.32976994455842</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>461.1728840826511</v>
+        <v>461.1728840826506</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>620.1038549178808</v>
       </c>
       <c r="M15" t="n">
-        <v>522.7334171224453</v>
+        <v>723.6319502798902</v>
       </c>
       <c r="N15" t="n">
-        <v>742.7843347697294</v>
+        <v>742.7843347697285</v>
       </c>
       <c r="O15" t="n">
-        <v>679.5025516156007</v>
+        <v>633.0182533245915</v>
       </c>
       <c r="P15" t="n">
-        <v>545.3607036746738</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.5591878301187</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>53.04797142868854</v>
+        <v>53.04797142868848</v>
       </c>
       <c r="T15" t="n">
-        <v>11.51147243045213</v>
+        <v>11.51147243045212</v>
       </c>
       <c r="U15" t="n">
-        <v>0.187891280148838</v>
+        <v>0.1878912801488378</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.394330411514153</v>
+        <v>2.39433041151415</v>
       </c>
       <c r="H16" t="n">
-        <v>21.28777402237131</v>
+        <v>21.28777402237128</v>
       </c>
       <c r="I16" t="n">
-        <v>72.00404546626201</v>
+        <v>72.00404546626193</v>
       </c>
       <c r="J16" t="n">
-        <v>169.2791600940506</v>
+        <v>169.2791600940504</v>
       </c>
       <c r="K16" t="n">
-        <v>278.1776605377352</v>
+        <v>278.1776605377348</v>
       </c>
       <c r="L16" t="n">
-        <v>355.9716322718406</v>
+        <v>355.9716322718402</v>
       </c>
       <c r="M16" t="n">
-        <v>375.3221753248958</v>
+        <v>375.3221753248953</v>
       </c>
       <c r="N16" t="n">
-        <v>366.3978528819797</v>
+        <v>366.3978528819792</v>
       </c>
       <c r="O16" t="n">
-        <v>338.4277203474733</v>
+        <v>338.4277203474729</v>
       </c>
       <c r="P16" t="n">
-        <v>289.5833799525844</v>
+        <v>289.583379952584</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.4925220041533</v>
+        <v>200.4925220041531</v>
       </c>
       <c r="R16" t="n">
-        <v>107.6578019577182</v>
+        <v>107.657801957718</v>
       </c>
       <c r="S16" t="n">
-        <v>41.72664908066027</v>
+        <v>41.72664908066022</v>
       </c>
       <c r="T16" t="n">
-        <v>10.23032084919683</v>
+        <v>10.23032084919682</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1305998406280449</v>
+        <v>0.1305998406280447</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.38026134809328</v>
+        <v>5.380261348093274</v>
       </c>
       <c r="H17" t="n">
-        <v>55.10060153116032</v>
+        <v>55.10060153116026</v>
       </c>
       <c r="I17" t="n">
-        <v>207.4225256223664</v>
+        <v>207.4225256223662</v>
       </c>
       <c r="J17" t="n">
-        <v>456.6429565927325</v>
+        <v>456.6429565927319</v>
       </c>
       <c r="K17" t="n">
-        <v>684.3894194575212</v>
+        <v>684.3894194575204</v>
       </c>
       <c r="L17" t="n">
-        <v>849.0455926892312</v>
+        <v>849.0455926892301</v>
       </c>
       <c r="M17" t="n">
-        <v>944.726815438385</v>
+        <v>944.7268154383838</v>
       </c>
       <c r="N17" t="n">
-        <v>960.0134829936551</v>
+        <v>960.013482993654</v>
       </c>
       <c r="O17" t="n">
-        <v>906.5135092135524</v>
+        <v>906.5135092135514</v>
       </c>
       <c r="P17" t="n">
-        <v>773.6883071824994</v>
+        <v>773.6883071824985</v>
       </c>
       <c r="Q17" t="n">
-        <v>581.0076976539086</v>
+        <v>581.0076976539079</v>
       </c>
       <c r="R17" t="n">
-        <v>337.9678419071648</v>
+        <v>337.9678419071644</v>
       </c>
       <c r="S17" t="n">
-        <v>122.6027054696758</v>
+        <v>122.6027054696756</v>
       </c>
       <c r="T17" t="n">
-        <v>23.55209405127835</v>
+        <v>23.55209405127832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4304209078474624</v>
+        <v>0.4304209078474618</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.878693607142553</v>
+        <v>2.87869360714255</v>
       </c>
       <c r="H18" t="n">
-        <v>27.80211983740309</v>
+        <v>27.80211983740305</v>
       </c>
       <c r="I18" t="n">
-        <v>99.11291585995195</v>
+        <v>99.11291585995184</v>
       </c>
       <c r="J18" t="n">
-        <v>271.9734166292006</v>
+        <v>271.9734166292004</v>
       </c>
       <c r="K18" t="n">
-        <v>464.8458883077517</v>
+        <v>245.9503065923072</v>
       </c>
       <c r="L18" t="n">
-        <v>625.042662375404</v>
+        <v>625.0426623754033</v>
       </c>
       <c r="M18" t="n">
-        <v>510.4997239188731</v>
+        <v>729.3953056343205</v>
       </c>
       <c r="N18" t="n">
-        <v>748.7002289909924</v>
+        <v>748.7002289909916</v>
       </c>
       <c r="O18" t="n">
-        <v>684.9144390643074</v>
+        <v>684.9144390643066</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>53.47047116775748</v>
+        <v>53.47047116775742</v>
       </c>
       <c r="T18" t="n">
-        <v>11.60315537264915</v>
+        <v>11.60315537264913</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1893877373120102</v>
+        <v>0.1893877373120099</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.413400018642664</v>
+        <v>2.413400018642661</v>
       </c>
       <c r="H19" t="n">
-        <v>21.45732016575024</v>
+        <v>21.45732016575022</v>
       </c>
       <c r="I19" t="n">
-        <v>72.57752056063576</v>
+        <v>72.57752056063568</v>
       </c>
       <c r="J19" t="n">
-        <v>170.6273813180363</v>
+        <v>170.6273813180361</v>
       </c>
       <c r="K19" t="n">
-        <v>280.3932021659385</v>
+        <v>280.3932021659382</v>
       </c>
       <c r="L19" t="n">
-        <v>358.8067627716557</v>
+        <v>358.8067627716553</v>
       </c>
       <c r="M19" t="n">
-        <v>378.3114229223222</v>
+        <v>378.3114229223218</v>
       </c>
       <c r="N19" t="n">
-        <v>369.3160228528362</v>
+        <v>369.3160228528358</v>
       </c>
       <c r="O19" t="n">
-        <v>341.1231226350559</v>
+        <v>341.1231226350555</v>
       </c>
       <c r="P19" t="n">
-        <v>291.8897622547453</v>
+        <v>291.889762254745</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.0893415610689</v>
+        <v>202.0893415610686</v>
       </c>
       <c r="R19" t="n">
-        <v>108.5152408382419</v>
+        <v>108.5152408382418</v>
       </c>
       <c r="S19" t="n">
-        <v>42.05898032489077</v>
+        <v>42.05898032489072</v>
       </c>
       <c r="T19" t="n">
-        <v>10.31180007965501</v>
+        <v>10.311800079655</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1316400010168727</v>
+        <v>0.1316400010168726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.380261348093281</v>
+        <v>5.380261348093274</v>
       </c>
       <c r="H20" t="n">
-        <v>55.10060153116034</v>
+        <v>55.10060153116026</v>
       </c>
       <c r="I20" t="n">
-        <v>207.4225256223664</v>
+        <v>207.4225256223662</v>
       </c>
       <c r="J20" t="n">
-        <v>456.6429565927326</v>
+        <v>456.6429565927319</v>
       </c>
       <c r="K20" t="n">
-        <v>684.3894194575213</v>
+        <v>684.3894194575204</v>
       </c>
       <c r="L20" t="n">
-        <v>849.0455926892313</v>
+        <v>849.0455926892301</v>
       </c>
       <c r="M20" t="n">
-        <v>944.7268154383851</v>
+        <v>944.7268154383838</v>
       </c>
       <c r="N20" t="n">
-        <v>960.0134829936552</v>
+        <v>960.013482993654</v>
       </c>
       <c r="O20" t="n">
-        <v>906.5135092135527</v>
+        <v>906.5135092135514</v>
       </c>
       <c r="P20" t="n">
-        <v>773.6883071824996</v>
+        <v>773.6883071824985</v>
       </c>
       <c r="Q20" t="n">
-        <v>581.0076976539087</v>
+        <v>581.0076976539079</v>
       </c>
       <c r="R20" t="n">
-        <v>337.9678419071649</v>
+        <v>337.9678419071644</v>
       </c>
       <c r="S20" t="n">
-        <v>122.6027054696758</v>
+        <v>122.6027054696756</v>
       </c>
       <c r="T20" t="n">
-        <v>23.55209405127835</v>
+        <v>23.55209405127832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4304209078474625</v>
+        <v>0.4304209078474618</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.878693607142554</v>
+        <v>2.87869360714255</v>
       </c>
       <c r="H21" t="n">
-        <v>27.80211983740309</v>
+        <v>27.80211983740305</v>
       </c>
       <c r="I21" t="n">
-        <v>99.11291585995198</v>
+        <v>99.11291585995184</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>271.9734166292004</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>245.9503065923072</v>
       </c>
       <c r="L21" t="n">
-        <v>625.0426623754041</v>
+        <v>625.0426623754033</v>
       </c>
       <c r="M21" t="n">
-        <v>729.3953056343215</v>
+        <v>729.3953056343205</v>
       </c>
       <c r="N21" t="n">
-        <v>748.7002289909925</v>
+        <v>748.7002289909916</v>
       </c>
       <c r="O21" t="n">
-        <v>684.9144390643075</v>
+        <v>684.9144390643066</v>
       </c>
       <c r="P21" t="n">
-        <v>387.219064994808</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>53.47047116775749</v>
+        <v>53.47047116775742</v>
       </c>
       <c r="T21" t="n">
-        <v>11.60315537264915</v>
+        <v>11.60315537264913</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1893877373120102</v>
+        <v>0.1893877373120099</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.413400018642664</v>
+        <v>2.413400018642661</v>
       </c>
       <c r="H22" t="n">
-        <v>21.45732016575025</v>
+        <v>21.45732016575022</v>
       </c>
       <c r="I22" t="n">
-        <v>72.57752056063578</v>
+        <v>72.57752056063568</v>
       </c>
       <c r="J22" t="n">
-        <v>170.6273813180364</v>
+        <v>170.6273813180361</v>
       </c>
       <c r="K22" t="n">
-        <v>280.3932021659385</v>
+        <v>280.3932021659382</v>
       </c>
       <c r="L22" t="n">
-        <v>358.8067627716558</v>
+        <v>358.8067627716553</v>
       </c>
       <c r="M22" t="n">
-        <v>378.3114229223223</v>
+        <v>378.3114229223218</v>
       </c>
       <c r="N22" t="n">
-        <v>369.3160228528363</v>
+        <v>369.3160228528358</v>
       </c>
       <c r="O22" t="n">
-        <v>341.1231226350559</v>
+        <v>341.1231226350555</v>
       </c>
       <c r="P22" t="n">
-        <v>291.8897622547454</v>
+        <v>291.889762254745</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.0893415610689</v>
+        <v>202.0893415610686</v>
       </c>
       <c r="R22" t="n">
-        <v>108.515240838242</v>
+        <v>108.5152408382418</v>
       </c>
       <c r="S22" t="n">
-        <v>42.05898032489078</v>
+        <v>42.05898032489072</v>
       </c>
       <c r="T22" t="n">
-        <v>10.31180007965502</v>
+        <v>10.311800079655</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1316400010168727</v>
+        <v>0.1316400010168726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>151.1434552068895</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504302</v>
@@ -32801,16 +32801,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33035,10 +33035,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>486.0296793139987</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
         <v>275.9770021735818</v>
@@ -33272,13 +33272,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>614.6084233282596</v>
       </c>
       <c r="O30" t="n">
-        <v>422.3544583169084</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33509,13 +33509,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3544583169084</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33740,19 +33740,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>360.5518110958072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>258.0817497358003</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>152.1929830599435</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34442,7 +34442,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
@@ -34451,19 +34451,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745725</v>
+        <v>489.1305551100683</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>459.3304791170301</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.06454430600407</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>15.06454430600407</v>
       </c>
       <c r="M2" t="n">
-        <v>14.45587584919583</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.242948255771003</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="P2" t="n">
         <v>15.06454430600407</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>15.06454430600407</v>
       </c>
       <c r="L3" t="n">
+        <v>8.08555229667369</v>
+      </c>
+      <c r="M3" t="n">
         <v>15.06454430600407</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8.085552296673697</v>
       </c>
       <c r="N3" t="n">
         <v>15.06454430600407</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.06454430600407</v>
+        <v>9.539237033363925</v>
       </c>
       <c r="M4" t="n">
         <v>15.06454430600407</v>
@@ -34869,10 +34869,10 @@
         <v>15.06454430600407</v>
       </c>
       <c r="O4" t="n">
-        <v>14.45587584919583</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.06454430600407</v>
+      </c>
+      <c r="O5" t="n">
         <v>14.45587584919583</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15.06454430600407</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>15.06454430600407</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>11.29412876407451</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>15.06454430600407</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>15.06454430600407</v>
       </c>
       <c r="M6" t="n">
-        <v>3.161747085121317</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14.45587584919583</v>
       </c>
       <c r="O6" t="n">
         <v>15.06454430600407</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>14.45587584919583</v>
+        <v>15.06454430600407</v>
       </c>
       <c r="M7" t="n">
         <v>15.06454430600407</v>
       </c>
       <c r="N7" t="n">
-        <v>15.06454430600407</v>
+        <v>4.254866412141671</v>
       </c>
       <c r="O7" t="n">
         <v>15.06454430600407</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>10.20100943705415</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>28.4584419706824</v>
+        <v>28.45844197068221</v>
       </c>
       <c r="L10" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.9888637371498</v>
+        <v>271.9888637371492</v>
       </c>
       <c r="K11" t="n">
-        <v>458.8918294338593</v>
+        <v>458.8918294338584</v>
       </c>
       <c r="L11" t="n">
-        <v>606.570399331199</v>
+        <v>606.5703993311979</v>
       </c>
       <c r="M11" t="n">
-        <v>706.9157736112056</v>
+        <v>706.9157736112044</v>
       </c>
       <c r="N11" t="n">
-        <v>723.0148223897938</v>
+        <v>723.0148223897927</v>
       </c>
       <c r="O11" t="n">
-        <v>669.2524336401069</v>
+        <v>669.2524336401057</v>
       </c>
       <c r="P11" t="n">
-        <v>536.3419725924227</v>
+        <v>536.3419725924218</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.1111449107617</v>
+        <v>354.1111449107609</v>
       </c>
       <c r="R11" t="n">
-        <v>119.7118334220062</v>
+        <v>119.7118334220057</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>142.9867777124079</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>323.3314451082922</v>
+        <v>122.4329119508502</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>581.4979163578728</v>
+        <v>581.4979163578719</v>
       </c>
       <c r="N12" t="n">
-        <v>611.4426226863962</v>
+        <v>611.4426226863952</v>
       </c>
       <c r="O12" t="n">
-        <v>536.9063071711564</v>
+        <v>536.9063071711555</v>
       </c>
       <c r="P12" t="n">
-        <v>292.0783991345868</v>
+        <v>411.3862962603429</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>224.5774137440967</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>75.91997997737786</v>
+        <v>75.91997997737764</v>
       </c>
       <c r="K13" t="n">
-        <v>255.9081687118524</v>
+        <v>255.908168711852</v>
       </c>
       <c r="L13" t="n">
-        <v>383.5616575321568</v>
+        <v>383.5616575321563</v>
       </c>
       <c r="M13" t="n">
-        <v>414.9060522867364</v>
+        <v>414.9060522867359</v>
       </c>
       <c r="N13" t="n">
-        <v>410.5300252612084</v>
+        <v>410.5300252612078</v>
       </c>
       <c r="O13" t="n">
-        <v>363.0128482615131</v>
+        <v>363.0128482615126</v>
       </c>
       <c r="P13" t="n">
-        <v>286.8619392174779</v>
+        <v>286.8619392174775</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.330478752459</v>
+        <v>114.3304787524587</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.9888637371498</v>
+        <v>271.9888637371492</v>
       </c>
       <c r="K14" t="n">
-        <v>458.8918294338592</v>
+        <v>458.8918294338584</v>
       </c>
       <c r="L14" t="n">
-        <v>606.570399331199</v>
+        <v>606.5703993311979</v>
       </c>
       <c r="M14" t="n">
-        <v>706.9157736112055</v>
+        <v>706.9157736112044</v>
       </c>
       <c r="N14" t="n">
-        <v>723.0148223897938</v>
+        <v>723.0148223897927</v>
       </c>
       <c r="O14" t="n">
-        <v>669.2524336401067</v>
+        <v>669.2524336401057</v>
       </c>
       <c r="P14" t="n">
-        <v>536.3419725924227</v>
+        <v>536.3419725924218</v>
       </c>
       <c r="Q14" t="n">
-        <v>354.1111449107616</v>
+        <v>354.1111449107609</v>
       </c>
       <c r="R14" t="n">
-        <v>119.7118334220061</v>
+        <v>119.7118334220057</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>323.3314451082921</v>
+        <v>323.3314451082916</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>481.5494751380066</v>
       </c>
       <c r="M15" t="n">
-        <v>380.599383200427</v>
+        <v>581.4979163578719</v>
       </c>
       <c r="N15" t="n">
-        <v>611.4426226863961</v>
+        <v>611.4426226863952</v>
       </c>
       <c r="O15" t="n">
-        <v>536.9063071711563</v>
+        <v>490.422008880147</v>
       </c>
       <c r="P15" t="n">
-        <v>411.3862962603436</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.5774137440972</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>75.91997997737784</v>
+        <v>75.91997997737764</v>
       </c>
       <c r="K16" t="n">
-        <v>255.9081687118523</v>
+        <v>255.908168711852</v>
       </c>
       <c r="L16" t="n">
-        <v>383.5616575321568</v>
+        <v>383.5616575321563</v>
       </c>
       <c r="M16" t="n">
-        <v>414.9060522867364</v>
+        <v>414.9060522867359</v>
       </c>
       <c r="N16" t="n">
-        <v>410.5300252612083</v>
+        <v>410.5300252612078</v>
       </c>
       <c r="O16" t="n">
-        <v>363.0128482615128</v>
+        <v>363.0128482615126</v>
       </c>
       <c r="P16" t="n">
-        <v>286.8619392174779</v>
+        <v>286.8619392174775</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.3304787524589</v>
+        <v>114.3304787524587</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>275.5970520660462</v>
+        <v>275.5970520660456</v>
       </c>
       <c r="K17" t="n">
-        <v>464.2995684125406</v>
+        <v>464.2995684125398</v>
       </c>
       <c r="L17" t="n">
-        <v>613.279177719244</v>
+        <v>613.2791777192429</v>
       </c>
       <c r="M17" t="n">
-        <v>714.3805822111123</v>
+        <v>714.3805822111111</v>
       </c>
       <c r="N17" t="n">
-        <v>730.6004193970641</v>
+        <v>730.600419397063</v>
       </c>
       <c r="O17" t="n">
-        <v>676.4152977918657</v>
+        <v>676.4152977918646</v>
       </c>
       <c r="P17" t="n">
-        <v>542.4553114272298</v>
+        <v>542.4553114272289</v>
       </c>
       <c r="Q17" t="n">
-        <v>358.7020077794591</v>
+        <v>358.7020077794584</v>
       </c>
       <c r="R17" t="n">
-        <v>122.3823040930327</v>
+        <v>122.3823040930323</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>145.1357899625339</v>
+        <v>145.1357899625337</v>
       </c>
       <c r="K18" t="n">
-        <v>327.0044493333927</v>
+        <v>108.1088676179482</v>
       </c>
       <c r="L18" t="n">
-        <v>486.4882825955298</v>
+        <v>486.4882825955291</v>
       </c>
       <c r="M18" t="n">
-        <v>368.3656899968548</v>
+        <v>587.2612717123022</v>
       </c>
       <c r="N18" t="n">
-        <v>617.3585169076591</v>
+        <v>617.3585169076583</v>
       </c>
       <c r="O18" t="n">
-        <v>542.318194619863</v>
+        <v>542.3181946198622</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.26820120136355</v>
+        <v>77.26820120136335</v>
       </c>
       <c r="K19" t="n">
-        <v>258.1237103400557</v>
+        <v>258.1237103400554</v>
       </c>
       <c r="L19" t="n">
-        <v>386.3967880319718</v>
+        <v>386.3967880319715</v>
       </c>
       <c r="M19" t="n">
-        <v>417.8952998841628</v>
+        <v>417.8952998841624</v>
       </c>
       <c r="N19" t="n">
-        <v>413.4481952320648</v>
+        <v>413.4481952320644</v>
       </c>
       <c r="O19" t="n">
-        <v>365.7082505490956</v>
+        <v>365.7082505490952</v>
       </c>
       <c r="P19" t="n">
-        <v>289.1683215196388</v>
+        <v>289.1683215196385</v>
       </c>
       <c r="Q19" t="n">
-        <v>115.9272983093745</v>
+        <v>115.9272983093743</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>275.5970520660463</v>
+        <v>275.5970520660456</v>
       </c>
       <c r="K20" t="n">
-        <v>464.2995684125407</v>
+        <v>464.2995684125398</v>
       </c>
       <c r="L20" t="n">
-        <v>613.279177719244</v>
+        <v>613.2791777192429</v>
       </c>
       <c r="M20" t="n">
-        <v>714.3805822111124</v>
+        <v>714.3805822111111</v>
       </c>
       <c r="N20" t="n">
-        <v>730.6004193970643</v>
+        <v>730.600419397063</v>
       </c>
       <c r="O20" t="n">
-        <v>676.4152977918659</v>
+        <v>676.4152977918646</v>
       </c>
       <c r="P20" t="n">
-        <v>542.4553114272301</v>
+        <v>542.4553114272289</v>
       </c>
       <c r="Q20" t="n">
-        <v>358.7020077794592</v>
+        <v>358.7020077794584</v>
       </c>
       <c r="R20" t="n">
-        <v>122.3823040930328</v>
+        <v>122.3823040930323</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>145.1357899625337</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>108.1088676179482</v>
       </c>
       <c r="L21" t="n">
-        <v>486.4882825955299</v>
+        <v>486.4882825955291</v>
       </c>
       <c r="M21" t="n">
-        <v>587.2612717123031</v>
+        <v>587.2612717123022</v>
       </c>
       <c r="N21" t="n">
-        <v>617.3585169076592</v>
+        <v>617.3585169076583</v>
       </c>
       <c r="O21" t="n">
-        <v>542.3181946198631</v>
+        <v>542.3181946198622</v>
       </c>
       <c r="P21" t="n">
-        <v>253.2446575804778</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.26820120136358</v>
+        <v>77.26820120136335</v>
       </c>
       <c r="K22" t="n">
-        <v>258.1237103400557</v>
+        <v>258.1237103400554</v>
       </c>
       <c r="L22" t="n">
-        <v>386.3967880319719</v>
+        <v>386.3967880319715</v>
       </c>
       <c r="M22" t="n">
-        <v>417.8952998841629</v>
+        <v>417.8952998841624</v>
       </c>
       <c r="N22" t="n">
-        <v>413.4481952320649</v>
+        <v>413.4481952320644</v>
       </c>
       <c r="O22" t="n">
-        <v>365.7082505490956</v>
+        <v>365.7082505490952</v>
       </c>
       <c r="P22" t="n">
-        <v>289.1683215196389</v>
+        <v>289.1683215196385</v>
       </c>
       <c r="Q22" t="n">
-        <v>115.9272983093745</v>
+        <v>115.9272983093743</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36373,7 +36373,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q23" t="n">
         <v>367.2547334404112</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>12.58907542701531</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284119</v>
@@ -36449,16 +36449,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>677.0902038955297</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
         <v>728.2874363020583</v>
@@ -36683,10 +36683,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>354.6879672306654</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898107</v>
+        <v>333.6317139898098</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380626</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
         <v>149.1393755069151</v>
@@ -36920,13 +36920,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>483.2667112449263</v>
       </c>
       <c r="O30" t="n">
-        <v>279.758213872464</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O32" t="n">
         <v>689.7596327870085</v>
@@ -37090,7 +37090,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136723</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O33" t="n">
-        <v>279.758213872464</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37388,19 +37388,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>221.9974313159331</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M38" t="n">
         <v>728.2874363020583</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>115.947715813782</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845848</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>13.63860328006933</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
@@ -38099,19 +38099,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946983</v>
+        <v>350.5761753301941</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>325.3560717026998</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
